--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/Kapla_Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/git/GlobalIn_Team4_KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55599A2F-D6E6-3642-BD2C-7F78FFF421A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7460AD-DE9D-0E47-91F5-2808025BF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
   <si>
     <t>순번</t>
   </si>
@@ -840,7 +840,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AA19" sqref="AA19"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1421,10 +1421,10 @@
       <c r="M12" s="2"/>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
-      <c r="P12" s="2"/>
+      <c r="P12" s="7"/>
       <c r="Q12" s="9"/>
       <c r="R12" s="9"/>
-      <c r="S12" s="2"/>
+      <c r="S12" s="7"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
@@ -1993,10 +1993,10 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="7"/>
-      <c r="P23" s="2"/>
+      <c r="P23" s="7"/>
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
-      <c r="S23" s="2"/>
+      <c r="S23" s="7"/>
       <c r="T23" s="2"/>
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
@@ -2031,7 +2031,9 @@
       <c r="C24" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -2043,10 +2045,10 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
+      <c r="P24" s="7"/>
       <c r="Q24" s="9"/>
       <c r="R24" s="9"/>
-      <c r="S24" s="2"/>
+      <c r="S24" s="7"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
@@ -2081,7 +2083,9 @@
       <c r="C25" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -2389,7 +2393,9 @@
       <c r="C31" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>26</v>
+      </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
@@ -2404,7 +2410,7 @@
       <c r="P31" s="2"/>
       <c r="Q31" s="9"/>
       <c r="R31" s="9"/>
-      <c r="S31" s="2"/>
+      <c r="S31" s="7"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/git/GlobalIn_Team4_KaplaProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7460AD-DE9D-0E47-91F5-2808025BF7FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF56CD-8E3E-5C41-B981-5F025DEC45F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
   <si>
     <t>순번</t>
   </si>
@@ -65,18 +65,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Q&amp;A 게시판</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>공지사항</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>이벤트 게시판</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>소셜 로그인</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -117,10 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>브랜드 Info</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 이미지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -153,10 +141,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>결제 모듈(아임포트)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 페이지 틀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -173,10 +157,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>마이페이지</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>DB 논리적 설계 (관계형 스키마)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -210,6 +190,34 @@
   </si>
   <si>
     <t>메인화면, 전체 틀</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>결제 모듈(KCP)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>기타</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>브랜드 info</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>이벤트 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Q&amp;A 페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -217,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -260,6 +268,22 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -402,7 +426,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -452,6 +476,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -487,6 +514,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -834,13 +867,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AS32"/>
+  <dimension ref="A3:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -852,117 +885,117 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
-      <c r="U3" s="23"/>
-      <c r="V3" s="23"/>
-      <c r="W3" s="23"/>
-      <c r="X3" s="23"/>
-      <c r="Y3" s="23"/>
-      <c r="Z3" s="23"/>
-      <c r="AA3" s="23"/>
-      <c r="AB3" s="23"/>
-      <c r="AC3" s="23"/>
-      <c r="AD3" s="23"/>
-      <c r="AE3" s="23"/>
-      <c r="AF3" s="23"/>
-      <c r="AG3" s="23"/>
-      <c r="AH3" s="23"/>
-      <c r="AI3" s="23"/>
-      <c r="AJ3" s="23"/>
-      <c r="AK3" s="23"/>
-      <c r="AL3" s="23"/>
-      <c r="AM3" s="23"/>
-      <c r="AN3" s="23"/>
-      <c r="AO3" s="23"/>
-      <c r="AP3" s="23"/>
-      <c r="AQ3" s="23"/>
-      <c r="AR3" s="24"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="24"/>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="24"/>
+      <c r="Z3" s="24"/>
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="24"/>
+      <c r="AG3" s="24"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="24"/>
+      <c r="AK3" s="24"/>
+      <c r="AL3" s="24"/>
+      <c r="AM3" s="24"/>
+      <c r="AN3" s="24"/>
+      <c r="AO3" s="24"/>
+      <c r="AP3" s="24"/>
+      <c r="AQ3" s="24"/>
+      <c r="AR3" s="25"/>
       <c r="AS3" s="5"/>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="27"/>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="26" t="s">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
-      <c r="V4" s="27"/>
-      <c r="W4" s="27"/>
-      <c r="X4" s="27"/>
-      <c r="Y4" s="27"/>
-      <c r="Z4" s="27"/>
-      <c r="AA4" s="27"/>
-      <c r="AB4" s="27"/>
-      <c r="AC4" s="27"/>
-      <c r="AD4" s="27"/>
-      <c r="AE4" s="27"/>
-      <c r="AF4" s="27"/>
-      <c r="AG4" s="27"/>
-      <c r="AH4" s="27"/>
-      <c r="AI4" s="27"/>
-      <c r="AJ4" s="27"/>
-      <c r="AK4" s="27"/>
-      <c r="AL4" s="27"/>
-      <c r="AM4" s="27"/>
-      <c r="AN4" s="27"/>
-      <c r="AO4" s="27"/>
-      <c r="AP4" s="27"/>
-      <c r="AQ4" s="27"/>
-      <c r="AR4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="28"/>
+      <c r="Z4" s="28"/>
+      <c r="AA4" s="28"/>
+      <c r="AB4" s="28"/>
+      <c r="AC4" s="28"/>
+      <c r="AD4" s="28"/>
+      <c r="AE4" s="28"/>
+      <c r="AF4" s="28"/>
+      <c r="AG4" s="28"/>
+      <c r="AH4" s="28"/>
+      <c r="AI4" s="28"/>
+      <c r="AJ4" s="28"/>
+      <c r="AK4" s="28"/>
+      <c r="AL4" s="28"/>
+      <c r="AM4" s="28"/>
+      <c r="AN4" s="28"/>
+      <c r="AO4" s="28"/>
+      <c r="AP4" s="28"/>
+      <c r="AQ4" s="28"/>
+      <c r="AR4" s="29"/>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="21"/>
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1089,11 +1122,11 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="17" t="s">
-        <v>16</v>
+      <c r="B6" s="18" t="s">
+        <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -1143,9 +1176,9 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="19"/>
       <c r="C7" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
@@ -1195,9 +1228,9 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
       <c r="C8" s="11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
@@ -1247,12 +1280,12 @@
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
       <c r="C9" s="12" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="7"/>
@@ -1299,9 +1332,9 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
@@ -1351,9 +1384,9 @@
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="19"/>
       <c r="C11" s="11" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -1403,12 +1436,12 @@
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1455,12 +1488,12 @@
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="19"/>
       <c r="C13" s="11" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1507,12 +1540,12 @@
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="11" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1559,9 +1592,9 @@
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -1611,9 +1644,9 @@
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="19"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -1663,14 +1696,14 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="17" t="s">
-        <v>24</v>
+      <c r="B17" s="18" t="s">
+        <v>21</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E17" s="16"/>
       <c r="F17" s="2"/>
@@ -1717,12 +1750,12 @@
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="8" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1741,7 +1774,7 @@
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
+      <c r="V18" s="7"/>
       <c r="W18" s="2"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
@@ -1769,12 +1802,12 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="19"/>
       <c r="C19" s="13" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1821,11 +1854,11 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="17" t="s">
-        <v>17</v>
+      <c r="B20" s="18" t="s">
+        <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="2"/>
@@ -1873,9 +1906,9 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="19"/>
       <c r="C21" s="14" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="2"/>
@@ -1923,11 +1956,13 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="19"/>
       <c r="C22" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1945,7 +1980,7 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
+      <c r="V22" s="31"/>
       <c r="W22" s="2"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
@@ -1973,14 +2008,14 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="17" t="s">
-        <v>18</v>
+      <c r="B23" s="18" t="s">
+        <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -1997,9 +2032,9 @@
       <c r="Q23" s="9"/>
       <c r="R23" s="9"/>
       <c r="S23" s="7"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
-      <c r="V23" s="2"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="16"/>
       <c r="W23" s="2"/>
       <c r="X23" s="9"/>
       <c r="Y23" s="9"/>
@@ -2027,12 +2062,12 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="19"/>
       <c r="C24" s="8" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2051,7 +2086,7 @@
       <c r="S24" s="7"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="2"/>
+      <c r="V24" s="30"/>
       <c r="W24" s="2"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
@@ -2079,12 +2114,12 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="19"/>
       <c r="C25" s="8" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2131,12 +2166,12 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="19"/>
       <c r="C26" s="8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2183,12 +2218,12 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="19"/>
       <c r="C27" s="15" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2235,9 +2270,9 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="19"/>
       <c r="C28" s="8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="2"/>
@@ -2285,11 +2320,13 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="19"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="1"/>
+        <v>39</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
@@ -2305,8 +2342,8 @@
       <c r="Q29" s="9"/>
       <c r="R29" s="9"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="2"/>
-      <c r="U29" s="2"/>
+      <c r="T29" s="7"/>
+      <c r="U29" s="7"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
       <c r="X29" s="9"/>
@@ -2335,14 +2372,14 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="17" t="s">
-        <v>19</v>
+      <c r="B30" s="18" t="s">
+        <v>17</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2359,8 +2396,8 @@
       <c r="Q30" s="9"/>
       <c r="R30" s="9"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="2"/>
-      <c r="U30" s="2"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="7"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
       <c r="X30" s="9"/>
@@ -2389,12 +2426,12 @@
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="18"/>
+      <c r="B31" s="19"/>
       <c r="C31" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
@@ -2437,13 +2474,13 @@
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
     </row>
-    <row r="32" spans="1:44">
+    <row r="32" spans="1:44" ht="17" customHeight="1">
       <c r="A32" s="6">
         <v>27</v>
       </c>
       <c r="B32" s="19"/>
-      <c r="C32" s="2" t="s">
-        <v>34</v>
+      <c r="C32" s="8" t="s">
+        <v>40</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
@@ -2460,7 +2497,7 @@
       <c r="P32" s="2"/>
       <c r="Q32" s="9"/>
       <c r="R32" s="9"/>
-      <c r="S32" s="2"/>
+      <c r="S32" s="7"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
@@ -2487,11 +2524,65 @@
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
     </row>
+    <row r="33" spans="1:44">
+      <c r="A33" s="6">
+        <v>28</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="9"/>
+      <c r="K33" s="9"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="7"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="9"/>
+      <c r="Y33" s="9"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="9"/>
+      <c r="AF33" s="9"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+      <c r="AL33" s="9"/>
+      <c r="AM33" s="9"/>
+      <c r="AN33" s="2"/>
+      <c r="AO33" s="2"/>
+      <c r="AP33" s="2"/>
+      <c r="AQ33" s="2"/>
+      <c r="AR33" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B30:B32"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B6:B16"/>
-    <mergeCell ref="B30:B32"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="A3:AR3"/>
     <mergeCell ref="D4:D5"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/git/GlobalIn_Team4_KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AF56CD-8E3E-5C41-B981-5F025DEC45F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B01A12-3133-F146-BFDE-589BB25A56A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,6 +479,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -514,12 +520,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,10 +870,10 @@
   <dimension ref="A3:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="I18" sqref="I18"/>
+      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -885,117 +885,117 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="24"/>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="24"/>
-      <c r="Z3" s="24"/>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="24"/>
-      <c r="AG3" s="24"/>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="24"/>
-      <c r="AK3" s="24"/>
-      <c r="AL3" s="24"/>
-      <c r="AM3" s="24"/>
-      <c r="AN3" s="24"/>
-      <c r="AO3" s="24"/>
-      <c r="AP3" s="24"/>
-      <c r="AQ3" s="24"/>
-      <c r="AR3" s="25"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="27"/>
       <c r="AS3" s="5"/>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="26" t="s">
+      <c r="D4" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="28"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="27" t="s">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30"/>
+      <c r="N4" s="30"/>
+      <c r="O4" s="30"/>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="28"/>
-      <c r="T4" s="28"/>
-      <c r="U4" s="28"/>
-      <c r="V4" s="28"/>
-      <c r="W4" s="28"/>
-      <c r="X4" s="28"/>
-      <c r="Y4" s="28"/>
-      <c r="Z4" s="28"/>
-      <c r="AA4" s="28"/>
-      <c r="AB4" s="28"/>
-      <c r="AC4" s="28"/>
-      <c r="AD4" s="28"/>
-      <c r="AE4" s="28"/>
-      <c r="AF4" s="28"/>
-      <c r="AG4" s="28"/>
-      <c r="AH4" s="28"/>
-      <c r="AI4" s="28"/>
-      <c r="AJ4" s="28"/>
-      <c r="AK4" s="28"/>
-      <c r="AL4" s="28"/>
-      <c r="AM4" s="28"/>
-      <c r="AN4" s="28"/>
-      <c r="AO4" s="28"/>
-      <c r="AP4" s="28"/>
-      <c r="AQ4" s="28"/>
-      <c r="AR4" s="29"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="30"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="30"/>
+      <c r="AM4" s="30"/>
+      <c r="AN4" s="30"/>
+      <c r="AO4" s="30"/>
+      <c r="AP4" s="30"/>
+      <c r="AQ4" s="30"/>
+      <c r="AR4" s="31"/>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+      <c r="A5" s="24"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1122,7 +1122,7 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="20" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1176,7 +1176,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="19"/>
+      <c r="B7" s="21"/>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1228,7 +1228,7 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="19"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1280,7 +1280,7 @@
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="19"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
@@ -1332,7 +1332,7 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="19"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1384,7 +1384,7 @@
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="19"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="11" t="s">
         <v>30</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="19"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="11" t="s">
         <v>35</v>
       </c>
@@ -1488,7 +1488,7 @@
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="19"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="11" t="s">
         <v>34</v>
       </c>
@@ -1540,7 +1540,7 @@
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="19"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="11" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="19"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="11" t="s">
         <v>27</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="20"/>
+      <c r="B16" s="22"/>
       <c r="C16" s="11" t="s">
         <v>28</v>
       </c>
@@ -1696,7 +1696,7 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="20" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1750,7 +1750,7 @@
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="19"/>
+      <c r="B18" s="21"/>
       <c r="C18" s="8" t="s">
         <v>43</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="2"/>
+      <c r="W18" s="7"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="2"/>
@@ -1802,7 +1802,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="19"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1906,7 +1906,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="21"/>
       <c r="C21" s="14" t="s">
         <v>45</v>
       </c>
@@ -1956,7 +1956,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="19"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="13" t="s">
         <v>44</v>
       </c>
@@ -1980,8 +1980,8 @@
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="31"/>
-      <c r="W22" s="2"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="7"/>
       <c r="X22" s="9"/>
       <c r="Y22" s="9"/>
       <c r="Z22" s="2"/>
@@ -2008,7 +2008,7 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="20" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2062,7 +2062,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="19"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
@@ -2086,8 +2086,8 @@
       <c r="S24" s="7"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="30"/>
-      <c r="W24" s="2"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="7"/>
       <c r="X24" s="9"/>
       <c r="Y24" s="9"/>
       <c r="Z24" s="2"/>
@@ -2114,7 +2114,7 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="19"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="19"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
@@ -2218,7 +2218,7 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="19"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="15" t="s">
         <v>25</v>
       </c>
@@ -2270,7 +2270,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="19"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="8" t="s">
         <v>24</v>
       </c>
@@ -2320,7 +2320,7 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="20"/>
+      <c r="B29" s="22"/>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
@@ -2372,7 +2372,7 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="20" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2426,7 +2426,7 @@
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="19"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
@@ -2478,7 +2478,7 @@
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="19"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="8" t="s">
         <v>40</v>
       </c>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/git/GlobalIn_Team4_KaplaProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89B01A12-3133-F146-BFDE-589BB25A56A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A848119-1EFB-C446-B14A-C0B825B474F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -426,7 +426,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -520,6 +520,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -870,10 +873,10 @@
   <dimension ref="A3:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="W18" sqref="W18"/>
+      <selection pane="bottomRight" activeCell="Z33" sqref="Z33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1761,7 +1764,7 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
+      <c r="I18" s="7"/>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
       <c r="L18" s="2"/>
@@ -1775,7 +1778,7 @@
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
       <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
+      <c r="W18" s="2"/>
       <c r="X18" s="9"/>
       <c r="Y18" s="9"/>
       <c r="Z18" s="2"/>
@@ -1831,7 +1834,7 @@
       <c r="X19" s="9"/>
       <c r="Y19" s="9"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
+      <c r="AA19" s="7"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
@@ -2139,11 +2142,11 @@
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="2"/>
+      <c r="W25" s="7"/>
       <c r="X25" s="9"/>
       <c r="Y25" s="9"/>
-      <c r="Z25" s="2"/>
-      <c r="AA25" s="2"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
@@ -2191,7 +2194,7 @@
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="2"/>
+      <c r="W26" s="7"/>
       <c r="X26" s="9"/>
       <c r="Y26" s="9"/>
       <c r="Z26" s="2"/>
@@ -2243,7 +2246,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="2"/>
+      <c r="W27" s="32"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="2"/>
@@ -2558,7 +2561,7 @@
       <c r="W33" s="2"/>
       <c r="X33" s="9"/>
       <c r="Y33" s="9"/>
-      <c r="Z33" s="2"/>
+      <c r="Z33" s="7"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A848119-1EFB-C446-B14A-C0B825B474F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893A250-FFAE-9C41-8CF0-537924A7BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
   <si>
     <t>순번</t>
   </si>
@@ -133,10 +133,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>주문</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>찜하기</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -218,6 +214,10 @@
   </si>
   <si>
     <t>Q&amp;A 페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문페이지</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -485,6 +485,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -520,9 +523,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -550,7 +550,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -873,10 +873,10 @@
   <dimension ref="A3:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E12" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="Z33" sqref="Z33"/>
+      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -888,117 +888,117 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="27"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="27"/>
+      <c r="P3" s="27"/>
+      <c r="Q3" s="27"/>
+      <c r="R3" s="27"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="27"/>
+      <c r="U3" s="27"/>
+      <c r="V3" s="27"/>
+      <c r="W3" s="27"/>
+      <c r="X3" s="27"/>
+      <c r="Y3" s="27"/>
+      <c r="Z3" s="27"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="28"/>
       <c r="AS3" s="5"/>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="D4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30"/>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30"/>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="29" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="30"/>
-      <c r="AM4" s="30"/>
-      <c r="AN4" s="30"/>
-      <c r="AO4" s="30"/>
-      <c r="AP4" s="30"/>
-      <c r="AQ4" s="30"/>
-      <c r="AR4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+      <c r="AH4" s="31"/>
+      <c r="AI4" s="31"/>
+      <c r="AJ4" s="31"/>
+      <c r="AK4" s="31"/>
+      <c r="AL4" s="31"/>
+      <c r="AM4" s="31"/>
+      <c r="AN4" s="31"/>
+      <c r="AO4" s="31"/>
+      <c r="AP4" s="31"/>
+      <c r="AQ4" s="31"/>
+      <c r="AR4" s="32"/>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="24"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1125,7 +1125,7 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1179,7 +1179,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="22"/>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1231,7 +1231,7 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="22"/>
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1283,12 +1283,12 @@
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="7"/>
@@ -1335,7 +1335,7 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1387,9 +1387,9 @@
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="22"/>
       <c r="C11" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
@@ -1439,9 +1439,9 @@
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="22"/>
       <c r="C12" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>23</v>
@@ -1491,12 +1491,12 @@
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="21"/>
+      <c r="B13" s="22"/>
       <c r="C13" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1543,12 +1543,12 @@
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="21"/>
+      <c r="B14" s="22"/>
       <c r="C14" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -1595,9 +1595,9 @@
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="21"/>
+      <c r="B15" s="22"/>
       <c r="C15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
@@ -1647,9 +1647,9 @@
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
@@ -1699,11 +1699,11 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -1753,12 +1753,12 @@
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="21"/>
+      <c r="B18" s="22"/>
       <c r="C18" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -1805,12 +1805,12 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="22"/>
       <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -1857,13 +1857,15 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1909,11 +1911,13 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="21"/>
+      <c r="B21" s="22"/>
       <c r="C21" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
@@ -1939,13 +1943,13 @@
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="2"/>
+      <c r="AD21" s="7"/>
       <c r="AE21" s="9"/>
       <c r="AF21" s="9"/>
-      <c r="AG21" s="2"/>
-      <c r="AH21" s="2"/>
-      <c r="AI21" s="2"/>
-      <c r="AJ21" s="2"/>
+      <c r="AG21" s="7"/>
+      <c r="AH21" s="7"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="7"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="9"/>
       <c r="AM21" s="9"/>
@@ -1959,12 +1963,12 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="22"/>
       <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2011,14 +2015,14 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="21" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2065,12 +2069,12 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="21"/>
+      <c r="B24" s="22"/>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2117,12 +2121,12 @@
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="21"/>
+      <c r="B25" s="22"/>
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -2169,12 +2173,12 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="21"/>
+      <c r="B26" s="22"/>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2205,9 +2209,9 @@
       <c r="AE26" s="9"/>
       <c r="AF26" s="9"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="2"/>
-      <c r="AI26" s="2"/>
-      <c r="AJ26" s="2"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="16"/>
       <c r="AK26" s="2"/>
       <c r="AL26" s="9"/>
       <c r="AM26" s="9"/>
@@ -2221,12 +2225,12 @@
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="21"/>
+      <c r="B27" s="22"/>
       <c r="C27" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2246,7 +2250,7 @@
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="32"/>
+      <c r="W27" s="20"/>
       <c r="X27" s="9"/>
       <c r="Y27" s="9"/>
       <c r="Z27" s="2"/>
@@ -2273,11 +2277,13 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="21"/>
+      <c r="B28" s="22"/>
       <c r="C28" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D28" s="1"/>
+        <v>45</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
@@ -2307,9 +2313,9 @@
       <c r="AE28" s="9"/>
       <c r="AF28" s="9"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="16"/>
+      <c r="AJ28" s="16"/>
       <c r="AK28" s="2"/>
       <c r="AL28" s="9"/>
       <c r="AM28" s="9"/>
@@ -2323,12 +2329,9 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="22"/>
+      <c r="B29" s="23"/>
       <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>23</v>
+        <v>38</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2375,14 +2378,14 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="21" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2413,8 +2416,8 @@
       <c r="AE30" s="9"/>
       <c r="AF30" s="9"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
+      <c r="AH30" s="7"/>
+      <c r="AI30" s="7"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
       <c r="AL30" s="9"/>
@@ -2429,7 +2432,7 @@
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="21"/>
+      <c r="B31" s="22"/>
       <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
@@ -2481,9 +2484,9 @@
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="21"/>
+      <c r="B32" s="22"/>
       <c r="C32" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="2"/>
@@ -2532,13 +2535,13 @@
         <v>28</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A893A250-FFAE-9C41-8CF0-537924A7BB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD75153-310B-3E4D-975A-4C9011E7CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
   <si>
     <t>순번</t>
   </si>
@@ -178,10 +178,6 @@
   </si>
   <si>
     <t>담당</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>박진영</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -426,7 +422,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -522,6 +518,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -876,7 +875,7 @@
       <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AG32" sqref="AG32"/>
+      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -1703,7 +1702,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
@@ -1755,7 +1754,7 @@
       </c>
       <c r="B18" s="22"/>
       <c r="C18" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>28</v>
@@ -1913,7 +1912,7 @@
       </c>
       <c r="B21" s="22"/>
       <c r="C21" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>31</v>
@@ -1965,7 +1964,7 @@
       </c>
       <c r="B22" s="22"/>
       <c r="C22" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>28</v>
@@ -2178,7 +2177,7 @@
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
@@ -2230,7 +2229,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
@@ -2279,7 +2278,7 @@
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>23</v>
@@ -2331,7 +2330,10 @@
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -2385,7 +2387,7 @@
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2486,9 +2488,11 @@
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D32" s="1"/>
+        <v>38</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -2535,10 +2539,10 @@
         <v>28</v>
       </c>
       <c r="B33" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>28</v>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFD75153-310B-3E4D-975A-4C9011E7CC7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98DAF7-08C1-754E-A12C-D4639A23A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,6 +484,9 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -518,9 +521,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,10 +872,10 @@
   <dimension ref="A3:AS33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E9" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="D31" sqref="D31"/>
+      <selection pane="bottomRight" activeCell="AQ23" sqref="AQ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -887,117 +887,117 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:45">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="27"/>
-      <c r="O3" s="27"/>
-      <c r="P3" s="27"/>
-      <c r="Q3" s="27"/>
-      <c r="R3" s="27"/>
-      <c r="S3" s="27"/>
-      <c r="T3" s="27"/>
-      <c r="U3" s="27"/>
-      <c r="V3" s="27"/>
-      <c r="W3" s="27"/>
-      <c r="X3" s="27"/>
-      <c r="Y3" s="27"/>
-      <c r="Z3" s="27"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="28"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AB3" s="28"/>
+      <c r="AC3" s="28"/>
+      <c r="AD3" s="28"/>
+      <c r="AE3" s="28"/>
+      <c r="AF3" s="28"/>
+      <c r="AG3" s="28"/>
+      <c r="AH3" s="28"/>
+      <c r="AI3" s="28"/>
+      <c r="AJ3" s="28"/>
+      <c r="AK3" s="28"/>
+      <c r="AL3" s="28"/>
+      <c r="AM3" s="28"/>
+      <c r="AN3" s="28"/>
+      <c r="AO3" s="28"/>
+      <c r="AP3" s="28"/>
+      <c r="AQ3" s="28"/>
+      <c r="AR3" s="29"/>
       <c r="AS3" s="5"/>
     </row>
     <row r="4" spans="1:45">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="30" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="30" t="s">
+      <c r="F4" s="32"/>
+      <c r="G4" s="32"/>
+      <c r="H4" s="32"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="32"/>
+      <c r="K4" s="32"/>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
+      <c r="R4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
-      <c r="AH4" s="31"/>
-      <c r="AI4" s="31"/>
-      <c r="AJ4" s="31"/>
-      <c r="AK4" s="31"/>
-      <c r="AL4" s="31"/>
-      <c r="AM4" s="31"/>
-      <c r="AN4" s="31"/>
-      <c r="AO4" s="31"/>
-      <c r="AP4" s="31"/>
-      <c r="AQ4" s="31"/>
-      <c r="AR4" s="32"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="33"/>
     </row>
     <row r="5" spans="1:45">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="26"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1124,7 +1124,7 @@
       <c r="A6" s="6">
         <v>1</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="22" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="10" t="s">
@@ -1178,7 +1178,7 @@
       <c r="A7" s="6">
         <v>2</v>
       </c>
-      <c r="B7" s="22"/>
+      <c r="B7" s="23"/>
       <c r="C7" s="11" t="s">
         <v>12</v>
       </c>
@@ -1230,7 +1230,7 @@
       <c r="A8" s="6">
         <v>3</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="23"/>
       <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
@@ -1282,7 +1282,7 @@
       <c r="A9" s="6">
         <v>4</v>
       </c>
-      <c r="B9" s="22"/>
+      <c r="B9" s="23"/>
       <c r="C9" s="12" t="s">
         <v>30</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="A10" s="6">
         <v>5</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="11" t="s">
         <v>13</v>
       </c>
@@ -1386,7 +1386,7 @@
       <c r="A11" s="6">
         <v>6</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="11" t="s">
         <v>29</v>
       </c>
@@ -1438,7 +1438,7 @@
       <c r="A12" s="6">
         <v>7</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="11" t="s">
         <v>34</v>
       </c>
@@ -1490,7 +1490,7 @@
       <c r="A13" s="6">
         <v>8</v>
       </c>
-      <c r="B13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="11" t="s">
         <v>33</v>
       </c>
@@ -1542,7 +1542,7 @@
       <c r="A14" s="6">
         <v>9</v>
       </c>
-      <c r="B14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="11" t="s">
         <v>32</v>
       </c>
@@ -1594,7 +1594,7 @@
       <c r="A15" s="6">
         <v>10</v>
       </c>
-      <c r="B15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="11" t="s">
         <v>26</v>
       </c>
@@ -1646,7 +1646,7 @@
       <c r="A16" s="6">
         <v>11</v>
       </c>
-      <c r="B16" s="23"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="11" t="s">
         <v>27</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="A17" s="6">
         <v>12</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="22" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="13" t="s">
@@ -1752,7 +1752,7 @@
       <c r="A18" s="6">
         <v>13</v>
       </c>
-      <c r="B18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="8" t="s">
         <v>41</v>
       </c>
@@ -1804,7 +1804,7 @@
       <c r="A19" s="6">
         <v>14</v>
       </c>
-      <c r="B19" s="22"/>
+      <c r="B19" s="23"/>
       <c r="C19" s="13" t="s">
         <v>20</v>
       </c>
@@ -1856,7 +1856,7 @@
       <c r="A20" s="6">
         <v>15</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="22" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="13" t="s">
@@ -1910,7 +1910,7 @@
       <c r="A21" s="6">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="23"/>
       <c r="C21" s="14" t="s">
         <v>43</v>
       </c>
@@ -1962,7 +1962,7 @@
       <c r="A22" s="6">
         <v>17</v>
       </c>
-      <c r="B22" s="22"/>
+      <c r="B22" s="23"/>
       <c r="C22" s="13" t="s">
         <v>42</v>
       </c>
@@ -2014,7 +2014,7 @@
       <c r="A23" s="6">
         <v>18</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="22" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="8" t="s">
@@ -2068,7 +2068,7 @@
       <c r="A24" s="6">
         <v>19</v>
       </c>
-      <c r="B24" s="22"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="8" t="s">
         <v>18</v>
       </c>
@@ -2113,14 +2113,14 @@
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="2"/>
+      <c r="AQ24" s="7"/>
       <c r="AR24" s="2"/>
     </row>
     <row r="25" spans="1:44">
       <c r="A25" s="6">
         <v>20</v>
       </c>
-      <c r="B25" s="22"/>
+      <c r="B25" s="23"/>
       <c r="C25" s="8" t="s">
         <v>19</v>
       </c>
@@ -2172,7 +2172,7 @@
       <c r="A26" s="6">
         <v>21</v>
       </c>
-      <c r="B26" s="22"/>
+      <c r="B26" s="23"/>
       <c r="C26" s="8" t="s">
         <v>9</v>
       </c>
@@ -2217,14 +2217,14 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
       <c r="AP26" s="2"/>
-      <c r="AQ26" s="2"/>
+      <c r="AQ26" s="7"/>
       <c r="AR26" s="2"/>
     </row>
     <row r="27" spans="1:44">
       <c r="A27" s="6">
         <v>22</v>
       </c>
-      <c r="B27" s="22"/>
+      <c r="B27" s="23"/>
       <c r="C27" s="15" t="s">
         <v>24</v>
       </c>
@@ -2276,7 +2276,7 @@
       <c r="A28" s="6">
         <v>23</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="23"/>
       <c r="C28" s="8" t="s">
         <v>44</v>
       </c>
@@ -2328,11 +2328,11 @@
       <c r="A29" s="6">
         <v>24</v>
       </c>
-      <c r="B29" s="23"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="21" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="2"/>
@@ -2380,7 +2380,7 @@
       <c r="A30" s="6">
         <v>25</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="22" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="8" t="s">
@@ -2434,7 +2434,7 @@
       <c r="A31" s="6">
         <v>26</v>
       </c>
-      <c r="B31" s="22"/>
+      <c r="B31" s="23"/>
       <c r="C31" s="8" t="s">
         <v>8</v>
       </c>
@@ -2486,7 +2486,7 @@
       <c r="A32" s="6">
         <v>27</v>
       </c>
-      <c r="B32" s="22"/>
+      <c r="B32" s="23"/>
       <c r="C32" s="8" t="s">
         <v>38</v>
       </c>
@@ -2584,8 +2584,8 @@
       <c r="AM33" s="9"/>
       <c r="AN33" s="2"/>
       <c r="AO33" s="2"/>
-      <c r="AP33" s="2"/>
-      <c r="AQ33" s="2"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
       <c r="AR33" s="2"/>
     </row>
   </sheetData>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB98DAF7-08C1-754E-A12C-D4639A23A735}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8424B0-D20C-6542-8495-A938C7329BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="46">
   <si>
     <t>순번</t>
   </si>
@@ -214,6 +214,10 @@
   </si>
   <si>
     <t>주문페이지</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>2월</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +289,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -318,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -415,6 +428,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -422,7 +477,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -435,10 +490,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -451,9 +502,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -496,25 +544,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -522,6 +555,66 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -869,13 +962,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:AS33"/>
+  <dimension ref="A2:CL33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="E6" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AQ23" sqref="AQ23"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" zoomScaleNormal="400" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="A3" sqref="A3"/>
+      <selection pane="topRight" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -884,120 +978,280 @@
     <col min="3" max="3" width="32.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="44" width="3.6640625" customWidth="1"/>
+    <col min="45" max="45" width="3.5" customWidth="1"/>
+    <col min="46" max="64" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:45">
-      <c r="A3" s="27" t="s">
+    <row r="2" spans="1:90">
+      <c r="A2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="27"/>
+      <c r="AM2" s="27"/>
+      <c r="AN2" s="27"/>
+      <c r="AO2" s="27"/>
+      <c r="AP2" s="27"/>
+      <c r="AQ2" s="27"/>
+      <c r="AR2" s="27"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="27"/>
+      <c r="AU2" s="27"/>
+      <c r="AV2" s="27"/>
+      <c r="AW2" s="27"/>
+      <c r="AX2" s="27"/>
+      <c r="AY2" s="27"/>
+      <c r="AZ2" s="27"/>
+      <c r="BA2" s="27"/>
+      <c r="BB2" s="27"/>
+      <c r="BC2" s="27"/>
+      <c r="BD2" s="27"/>
+      <c r="BE2" s="27"/>
+      <c r="BF2" s="27"/>
+      <c r="BG2" s="27"/>
+      <c r="BH2" s="27"/>
+      <c r="BI2" s="27"/>
+      <c r="BJ2" s="27"/>
+      <c r="BK2" s="27"/>
+      <c r="BL2" s="29"/>
+      <c r="BM2" s="30"/>
+    </row>
+    <row r="3" spans="1:90">
+      <c r="A3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="28"/>
-      <c r="AJ3" s="28"/>
-      <c r="AK3" s="28"/>
-      <c r="AL3" s="28"/>
-      <c r="AM3" s="28"/>
-      <c r="AN3" s="28"/>
-      <c r="AO3" s="28"/>
-      <c r="AP3" s="28"/>
-      <c r="AQ3" s="28"/>
-      <c r="AR3" s="29"/>
-      <c r="AS3" s="5"/>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
+      <c r="G3" s="43"/>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+      <c r="M3" s="43"/>
+      <c r="N3" s="43"/>
+      <c r="O3" s="43"/>
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="43"/>
+      <c r="U3" s="43"/>
+      <c r="V3" s="43"/>
+      <c r="W3" s="43"/>
+      <c r="X3" s="43"/>
+      <c r="Y3" s="43"/>
+      <c r="Z3" s="43"/>
+      <c r="AA3" s="43"/>
+      <c r="AB3" s="43"/>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="43"/>
+      <c r="AF3" s="43"/>
+      <c r="AG3" s="43"/>
+      <c r="AH3" s="43"/>
+      <c r="AI3" s="43"/>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="43"/>
+      <c r="AM3" s="43"/>
+      <c r="AN3" s="43"/>
+      <c r="AO3" s="43"/>
+      <c r="AP3" s="43"/>
+      <c r="AQ3" s="43"/>
+      <c r="AR3" s="43"/>
+      <c r="AS3" s="43"/>
+      <c r="AT3" s="43"/>
+      <c r="AU3" s="43"/>
+      <c r="AV3" s="43"/>
+      <c r="AW3" s="43"/>
+      <c r="AX3" s="43"/>
+      <c r="AY3" s="43"/>
+      <c r="AZ3" s="43"/>
+      <c r="BA3" s="43"/>
+      <c r="BB3" s="43"/>
+      <c r="BC3" s="43"/>
+      <c r="BD3" s="43"/>
+      <c r="BE3" s="43"/>
+      <c r="BF3" s="43"/>
+      <c r="BG3" s="43"/>
+      <c r="BH3" s="43"/>
+      <c r="BI3" s="43"/>
+      <c r="BJ3" s="43"/>
+      <c r="BK3" s="43"/>
+      <c r="BL3" s="43"/>
+      <c r="BM3" s="28"/>
+      <c r="BN3" s="30"/>
+      <c r="BO3" s="30"/>
+      <c r="BP3" s="30"/>
+      <c r="BQ3" s="30"/>
+      <c r="BR3" s="30"/>
+      <c r="BS3" s="30"/>
+      <c r="BT3" s="30"/>
+      <c r="BU3" s="30"/>
+      <c r="BV3" s="30"/>
+      <c r="BW3" s="30"/>
+      <c r="BX3" s="30"/>
+      <c r="BY3" s="30"/>
+      <c r="BZ3" s="30"/>
+      <c r="CC3" s="30"/>
+      <c r="CD3" s="30"/>
+      <c r="CE3" s="30"/>
+      <c r="CF3" s="30"/>
+      <c r="CG3" s="30"/>
+      <c r="CH3" s="30"/>
+      <c r="CI3" s="30"/>
+      <c r="CJ3" s="30"/>
+      <c r="CK3" s="30"/>
+      <c r="CL3" s="30"/>
     </row>
-    <row r="4" spans="1:45">
-      <c r="A4" s="25" t="s">
+    <row r="4" spans="1:90">
+      <c r="A4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="E4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="32"/>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="32"/>
-      <c r="K4" s="32"/>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="32"/>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="31" t="s">
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="24"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="32"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="32"/>
-      <c r="X4" s="32"/>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="32"/>
-      <c r="AC4" s="32"/>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="32"/>
-      <c r="AG4" s="32"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="32"/>
-      <c r="AL4" s="32"/>
-      <c r="AM4" s="32"/>
-      <c r="AN4" s="32"/>
-      <c r="AO4" s="32"/>
-      <c r="AP4" s="32"/>
-      <c r="AQ4" s="32"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
+      <c r="Y4" s="33"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="33"/>
+      <c r="AE4" s="33"/>
+      <c r="AF4" s="33"/>
+      <c r="AG4" s="33"/>
+      <c r="AH4" s="33"/>
+      <c r="AI4" s="33"/>
+      <c r="AJ4" s="33"/>
+      <c r="AK4" s="33"/>
+      <c r="AL4" s="33"/>
+      <c r="AM4" s="33"/>
+      <c r="AN4" s="33"/>
+      <c r="AO4" s="33"/>
+      <c r="AP4" s="33"/>
+      <c r="AQ4" s="33"/>
       <c r="AR4" s="33"/>
+      <c r="AS4" s="33"/>
+      <c r="AT4" s="33"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="34"/>
+      <c r="AW4" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX4" s="38"/>
+      <c r="AY4" s="38"/>
+      <c r="AZ4" s="38"/>
+      <c r="BA4" s="38"/>
+      <c r="BB4" s="38"/>
+      <c r="BC4" s="38"/>
+      <c r="BD4" s="38"/>
+      <c r="BE4" s="38"/>
+      <c r="BF4" s="38"/>
+      <c r="BG4" s="38"/>
+      <c r="BH4" s="38"/>
+      <c r="BI4" s="38"/>
+      <c r="BJ4" s="38"/>
+      <c r="BK4" s="38"/>
+      <c r="BL4" s="39"/>
+      <c r="BM4" s="31"/>
+      <c r="BN4" s="31"/>
+      <c r="BO4" s="31"/>
+      <c r="BP4" s="31"/>
+      <c r="BQ4" s="31"/>
+      <c r="BR4" s="31"/>
+      <c r="BS4" s="31"/>
+      <c r="BT4" s="31"/>
+      <c r="BU4" s="31"/>
+      <c r="BV4" s="31"/>
+      <c r="BW4" s="31"/>
+      <c r="BX4" s="31"/>
+      <c r="BY4" s="31"/>
+      <c r="BZ4" s="31"/>
+      <c r="CA4" s="31"/>
+      <c r="CB4" s="31"/>
+      <c r="CC4" s="31"/>
+      <c r="CD4" s="31"/>
+      <c r="CE4" s="31"/>
+      <c r="CF4" s="31"/>
+      <c r="CG4" s="31"/>
+      <c r="CH4" s="31"/>
+      <c r="CI4" s="31"/>
+      <c r="CJ4" s="31"/>
+      <c r="CK4" s="31"/>
+      <c r="CL4" s="31"/>
     </row>
-    <row r="5" spans="1:45">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
+    <row r="5" spans="1:90">
+      <c r="A5" s="22"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1037,357 +1291,567 @@
       <c r="Q5" s="3">
         <v>31</v>
       </c>
-      <c r="R5" s="3">
+      <c r="R5" s="35">
         <v>1</v>
       </c>
-      <c r="S5" s="3">
+      <c r="S5" s="35">
         <v>2</v>
       </c>
-      <c r="T5" s="3">
+      <c r="T5" s="35">
         <v>3</v>
       </c>
-      <c r="U5" s="3">
+      <c r="U5" s="35">
         <v>4</v>
       </c>
-      <c r="V5" s="3">
+      <c r="V5" s="35">
         <v>5</v>
       </c>
-      <c r="W5" s="3">
+      <c r="W5" s="35">
         <v>6</v>
       </c>
-      <c r="X5" s="3">
+      <c r="X5" s="35">
         <v>7</v>
       </c>
-      <c r="Y5" s="3">
+      <c r="Y5" s="35">
         <v>8</v>
       </c>
-      <c r="Z5" s="3">
+      <c r="Z5" s="35">
         <v>9</v>
       </c>
-      <c r="AA5" s="3">
+      <c r="AA5" s="35">
         <v>10</v>
       </c>
-      <c r="AB5" s="3">
+      <c r="AB5" s="35">
         <v>11</v>
       </c>
-      <c r="AC5" s="3">
+      <c r="AC5" s="35">
         <v>12</v>
       </c>
-      <c r="AD5" s="3">
+      <c r="AD5" s="35">
         <v>13</v>
       </c>
-      <c r="AE5" s="3">
+      <c r="AE5" s="35">
         <v>14</v>
       </c>
-      <c r="AF5" s="3">
+      <c r="AF5" s="35">
         <v>15</v>
       </c>
-      <c r="AG5" s="3">
+      <c r="AG5" s="35">
         <v>16</v>
       </c>
-      <c r="AH5" s="3">
+      <c r="AH5" s="35">
         <v>17</v>
       </c>
-      <c r="AI5" s="3">
+      <c r="AI5" s="35">
         <v>18</v>
       </c>
-      <c r="AJ5" s="3">
+      <c r="AJ5" s="35">
         <v>19</v>
       </c>
-      <c r="AK5" s="3">
+      <c r="AK5" s="35">
         <v>20</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AL5" s="35">
         <v>21</v>
       </c>
-      <c r="AM5" s="3">
+      <c r="AM5" s="35">
         <v>22</v>
       </c>
-      <c r="AN5" s="3">
+      <c r="AN5" s="35">
         <v>23</v>
       </c>
-      <c r="AO5" s="3">
+      <c r="AO5" s="35">
         <v>24</v>
       </c>
-      <c r="AP5" s="3">
+      <c r="AP5" s="35">
         <v>25</v>
       </c>
-      <c r="AQ5" s="3">
+      <c r="AQ5" s="35">
         <v>26</v>
       </c>
-      <c r="AR5" s="3">
+      <c r="AR5" s="35">
         <v>27</v>
       </c>
-      <c r="AS5" s="4"/>
+      <c r="AS5" s="36">
+        <v>28</v>
+      </c>
+      <c r="AT5" s="40">
+        <v>29</v>
+      </c>
+      <c r="AU5" s="40">
+        <v>30</v>
+      </c>
+      <c r="AV5" s="40">
+        <v>31</v>
+      </c>
+      <c r="AW5" s="40">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="40">
+        <v>2</v>
+      </c>
+      <c r="AY5" s="40">
+        <v>3</v>
+      </c>
+      <c r="AZ5" s="40">
+        <v>4</v>
+      </c>
+      <c r="BA5" s="40">
+        <v>5</v>
+      </c>
+      <c r="BB5" s="40">
+        <v>6</v>
+      </c>
+      <c r="BC5" s="40">
+        <v>7</v>
+      </c>
+      <c r="BD5" s="40">
+        <v>8</v>
+      </c>
+      <c r="BE5" s="40">
+        <v>9</v>
+      </c>
+      <c r="BF5" s="40">
+        <v>10</v>
+      </c>
+      <c r="BG5" s="40">
+        <v>11</v>
+      </c>
+      <c r="BH5" s="40">
+        <v>12</v>
+      </c>
+      <c r="BI5" s="40">
+        <v>13</v>
+      </c>
+      <c r="BJ5" s="40">
+        <v>14</v>
+      </c>
+      <c r="BK5" s="40">
+        <v>15</v>
+      </c>
+      <c r="BL5" s="40">
+        <v>16</v>
+      </c>
+      <c r="BM5" s="30"/>
+      <c r="BN5" s="30"/>
+      <c r="BO5" s="30"/>
+      <c r="BP5" s="30"/>
+      <c r="BQ5" s="30"/>
+      <c r="BR5" s="30"/>
+      <c r="BS5" s="30"/>
+      <c r="BT5" s="30"/>
+      <c r="BU5" s="30"/>
+      <c r="BV5" s="30"/>
+      <c r="BW5" s="30"/>
+      <c r="BX5" s="30"/>
+      <c r="BY5" s="30"/>
+      <c r="BZ5" s="30"/>
+      <c r="CA5" s="30"/>
+      <c r="CB5" s="30"/>
+      <c r="CC5" s="30"/>
+      <c r="CD5" s="30"/>
+      <c r="CE5" s="30"/>
+      <c r="CF5" s="30"/>
+      <c r="CG5" s="30"/>
+      <c r="CH5" s="30"/>
+      <c r="CI5" s="30"/>
+      <c r="CJ5" s="30"/>
     </row>
-    <row r="6" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A6" s="6">
+    <row r="6" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="5"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-      <c r="X6" s="9"/>
-      <c r="Y6" s="9"/>
+      <c r="X6" s="7"/>
+      <c r="Y6" s="7"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
       <c r="AC6" s="2"/>
       <c r="AD6" s="2"/>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="9"/>
+      <c r="AE6" s="7"/>
+      <c r="AF6" s="7"/>
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
       <c r="AK6" s="2"/>
-      <c r="AL6" s="9"/>
-      <c r="AM6" s="9"/>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
+      <c r="AL6" s="7"/>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
+      <c r="AS6" s="41"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="7"/>
+      <c r="BA6" s="7"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="7"/>
+      <c r="BH6" s="7"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="30"/>
+      <c r="BN6" s="30"/>
+      <c r="BO6" s="30"/>
+      <c r="BP6" s="30"/>
+      <c r="BQ6" s="30"/>
+      <c r="BR6" s="30"/>
+      <c r="BS6" s="30"/>
+      <c r="BT6" s="30"/>
+      <c r="BU6" s="30"/>
+      <c r="BV6" s="30"/>
+      <c r="BW6" s="30"/>
+      <c r="BX6" s="30"/>
+      <c r="BY6" s="30"/>
+      <c r="BZ6" s="30"/>
     </row>
-    <row r="7" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A7" s="6">
+    <row r="7" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="11" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="5"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
-      <c r="Q7" s="9"/>
-      <c r="R7" s="9"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-      <c r="X7" s="9"/>
-      <c r="Y7" s="9"/>
+      <c r="X7" s="7"/>
+      <c r="Y7" s="7"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
       <c r="AC7" s="2"/>
       <c r="AD7" s="2"/>
-      <c r="AE7" s="9"/>
-      <c r="AF7" s="9"/>
+      <c r="AE7" s="7"/>
+      <c r="AF7" s="7"/>
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
       <c r="AK7" s="2"/>
-      <c r="AL7" s="9"/>
-      <c r="AM7" s="9"/>
-      <c r="AN7" s="2"/>
-      <c r="AO7" s="2"/>
+      <c r="AL7" s="7"/>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7"/>
+      <c r="AO7" s="7"/>
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
+      <c r="AS7" s="42"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="7"/>
+      <c r="BA7" s="7"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="7"/>
+      <c r="BH7" s="7"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BN7" s="30"/>
+      <c r="BO7" s="30"/>
+      <c r="BP7" s="30"/>
+      <c r="BQ7" s="30"/>
+      <c r="BR7" s="30"/>
+      <c r="BS7" s="30"/>
+      <c r="BT7" s="30"/>
+      <c r="BU7" s="30"/>
+      <c r="BV7" s="30"/>
+      <c r="BW7" s="30"/>
+      <c r="BX7" s="30"/>
+      <c r="BY7" s="30"/>
+      <c r="BZ7" s="30"/>
     </row>
-    <row r="8" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A8" s="6">
+    <row r="8" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="11" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="5"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
-      <c r="Q8" s="9"/>
-      <c r="R8" s="9"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-      <c r="X8" s="9"/>
-      <c r="Y8" s="9"/>
+      <c r="X8" s="7"/>
+      <c r="Y8" s="7"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
       <c r="AC8" s="2"/>
       <c r="AD8" s="2"/>
-      <c r="AE8" s="9"/>
-      <c r="AF8" s="9"/>
+      <c r="AE8" s="7"/>
+      <c r="AF8" s="7"/>
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
-      <c r="AL8" s="9"/>
-      <c r="AM8" s="9"/>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
+      <c r="AL8" s="7"/>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7"/>
+      <c r="AO8" s="7"/>
       <c r="AP8" s="2"/>
       <c r="AQ8" s="2"/>
       <c r="AR8" s="2"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="7"/>
+      <c r="BA8" s="7"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="7"/>
+      <c r="BH8" s="7"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
     </row>
-    <row r="9" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A9" s="6">
+    <row r="9" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="23"/>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="5"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
-      <c r="Q9" s="9"/>
-      <c r="R9" s="9"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-      <c r="X9" s="9"/>
-      <c r="Y9" s="9"/>
+      <c r="X9" s="7"/>
+      <c r="Y9" s="7"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
       <c r="AC9" s="2"/>
       <c r="AD9" s="2"/>
-      <c r="AE9" s="9"/>
-      <c r="AF9" s="9"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="7"/>
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
       <c r="AK9" s="2"/>
-      <c r="AL9" s="9"/>
-      <c r="AM9" s="9"/>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
+      <c r="AL9" s="7"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7"/>
+      <c r="AO9" s="7"/>
       <c r="AP9" s="2"/>
       <c r="AQ9" s="2"/>
       <c r="AR9" s="2"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="7"/>
+      <c r="BA9" s="7"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="7"/>
+      <c r="BH9" s="7"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
     </row>
-    <row r="10" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A10" s="6">
+    <row r="10" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="23"/>
-      <c r="C10" s="11" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="5"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="Q10" s="9"/>
-      <c r="R10" s="9"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
+      <c r="X10" s="7"/>
+      <c r="Y10" s="7"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
       <c r="AC10" s="2"/>
       <c r="AD10" s="2"/>
-      <c r="AE10" s="9"/>
-      <c r="AF10" s="9"/>
+      <c r="AE10" s="7"/>
+      <c r="AF10" s="7"/>
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
       <c r="AK10" s="2"/>
-      <c r="AL10" s="9"/>
-      <c r="AM10" s="9"/>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
+      <c r="AL10" s="7"/>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7"/>
+      <c r="AO10" s="7"/>
       <c r="AP10" s="2"/>
       <c r="AQ10" s="2"/>
       <c r="AR10" s="2"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="7"/>
+      <c r="BA10" s="7"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="7"/>
+      <c r="BH10" s="7"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
     </row>
-    <row r="11" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A11" s="6">
+    <row r="11" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="23"/>
-      <c r="C11" s="11" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1395,51 +1859,71 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="7"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
-      <c r="Q11" s="9"/>
-      <c r="R11" s="9"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-      <c r="X11" s="9"/>
-      <c r="Y11" s="9"/>
+      <c r="X11" s="7"/>
+      <c r="Y11" s="7"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
       <c r="AC11" s="2"/>
       <c r="AD11" s="2"/>
-      <c r="AE11" s="9"/>
-      <c r="AF11" s="9"/>
+      <c r="AE11" s="7"/>
+      <c r="AF11" s="7"/>
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
       <c r="AI11" s="2"/>
       <c r="AJ11" s="2"/>
       <c r="AK11" s="2"/>
-      <c r="AL11" s="9"/>
-      <c r="AM11" s="9"/>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
+      <c r="AL11" s="7"/>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7"/>
+      <c r="AO11" s="7"/>
       <c r="AP11" s="2"/>
       <c r="AQ11" s="2"/>
       <c r="AR11" s="2"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="7"/>
+      <c r="BA11" s="7"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="7"/>
+      <c r="BH11" s="7"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
     </row>
-    <row r="12" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A12" s="6">
+    <row r="12" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="11" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="1" t="s">
@@ -1450,48 +1934,68 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="9"/>
-      <c r="R12" s="9"/>
-      <c r="S12" s="7"/>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+      <c r="P12" s="5"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="5"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-      <c r="X12" s="9"/>
-      <c r="Y12" s="9"/>
+      <c r="X12" s="7"/>
+      <c r="Y12" s="7"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
       <c r="AC12" s="2"/>
       <c r="AD12" s="2"/>
-      <c r="AE12" s="9"/>
-      <c r="AF12" s="9"/>
+      <c r="AE12" s="7"/>
+      <c r="AF12" s="7"/>
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
       <c r="AI12" s="2"/>
       <c r="AJ12" s="2"/>
       <c r="AK12" s="2"/>
-      <c r="AL12" s="9"/>
-      <c r="AM12" s="9"/>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
+      <c r="AL12" s="7"/>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7"/>
+      <c r="AO12" s="7"/>
       <c r="AP12" s="2"/>
       <c r="AQ12" s="2"/>
       <c r="AR12" s="2"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="7"/>
+      <c r="BA12" s="7"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="7"/>
+      <c r="BH12" s="7"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
     </row>
-    <row r="13" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A13" s="6">
+    <row r="13" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="23"/>
-      <c r="C13" s="11" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1500,50 +2004,71 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
-      <c r="Q13" s="9"/>
-      <c r="R13" s="9"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-      <c r="X13" s="9"/>
-      <c r="Y13" s="9"/>
+      <c r="X13" s="7"/>
+      <c r="Y13" s="7"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
       <c r="AD13" s="2"/>
-      <c r="AE13" s="9"/>
-      <c r="AF13" s="9"/>
+      <c r="AE13" s="7"/>
+      <c r="AF13" s="7"/>
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
       <c r="AI13" s="2"/>
       <c r="AJ13" s="2"/>
       <c r="AK13" s="2"/>
-      <c r="AL13" s="9"/>
-      <c r="AM13" s="9"/>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
+      <c r="AL13" s="7"/>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7"/>
+      <c r="AO13" s="7"/>
       <c r="AP13" s="2"/>
       <c r="AQ13" s="2"/>
       <c r="AR13" s="2"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="7"/>
+      <c r="BA13" s="7"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="7"/>
+      <c r="BH13" s="7"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BZ13" s="30"/>
     </row>
-    <row r="14" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A14" s="6">
+    <row r="14" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="23"/>
-      <c r="C14" s="11" t="s">
+      <c r="B14" s="20"/>
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1554,48 +2079,68 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
       <c r="L14" s="2"/>
-      <c r="M14" s="7"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
-      <c r="Q14" s="9"/>
-      <c r="R14" s="9"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-      <c r="X14" s="9"/>
-      <c r="Y14" s="9"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
       <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
       <c r="AD14" s="2"/>
-      <c r="AE14" s="9"/>
-      <c r="AF14" s="9"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
       <c r="AI14" s="2"/>
       <c r="AJ14" s="2"/>
       <c r="AK14" s="2"/>
-      <c r="AL14" s="9"/>
-      <c r="AM14" s="9"/>
-      <c r="AN14" s="2"/>
-      <c r="AO14" s="2"/>
+      <c r="AL14" s="7"/>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7"/>
+      <c r="AO14" s="7"/>
       <c r="AP14" s="2"/>
       <c r="AQ14" s="2"/>
       <c r="AR14" s="2"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="7"/>
+      <c r="BA14" s="7"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="7"/>
+      <c r="BH14" s="7"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
     </row>
-    <row r="15" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A15" s="6">
+    <row r="15" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="23"/>
-      <c r="C15" s="11" t="s">
+      <c r="B15" s="20"/>
+      <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -1606,48 +2151,68 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
-      <c r="Q15" s="9"/>
-      <c r="R15" s="9"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-      <c r="X15" s="9"/>
-      <c r="Y15" s="9"/>
+      <c r="X15" s="7"/>
+      <c r="Y15" s="7"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
       <c r="AC15" s="2"/>
       <c r="AD15" s="2"/>
-      <c r="AE15" s="9"/>
-      <c r="AF15" s="9"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="7"/>
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
       <c r="AI15" s="2"/>
       <c r="AJ15" s="2"/>
       <c r="AK15" s="2"/>
-      <c r="AL15" s="9"/>
-      <c r="AM15" s="9"/>
-      <c r="AN15" s="2"/>
-      <c r="AO15" s="2"/>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="7"/>
+      <c r="AO15" s="7"/>
       <c r="AP15" s="2"/>
       <c r="AQ15" s="2"/>
       <c r="AR15" s="2"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="7"/>
+      <c r="BA15" s="7"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="7"/>
+      <c r="BH15" s="7"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
     </row>
-    <row r="16" spans="1:45" ht="16.5" customHeight="1">
-      <c r="A16" s="6">
+    <row r="16" spans="1:90" ht="16.5" customHeight="1">
+      <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="11" t="s">
+      <c r="B16" s="21"/>
+      <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -1658,102 +2223,142 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
+      <c r="X16" s="7"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
       <c r="AC16" s="2"/>
       <c r="AD16" s="2"/>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
+      <c r="AE16" s="7"/>
+      <c r="AF16" s="7"/>
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
       <c r="AI16" s="2"/>
       <c r="AJ16" s="2"/>
       <c r="AK16" s="2"/>
-      <c r="AL16" s="9"/>
-      <c r="AM16" s="9"/>
-      <c r="AN16" s="2"/>
-      <c r="AO16" s="2"/>
+      <c r="AL16" s="7"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="7"/>
+      <c r="AO16" s="7"/>
       <c r="AP16" s="2"/>
       <c r="AQ16" s="2"/>
       <c r="AR16" s="2"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="7"/>
+      <c r="BA16" s="7"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="7"/>
+      <c r="BH16" s="7"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
     </row>
-    <row r="17" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A17" s="6">
+    <row r="17" spans="1:64" ht="16.5" customHeight="1">
+      <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="22" t="s">
+      <c r="B17" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>36</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="13"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
       <c r="I17" s="2"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
+      <c r="X17" s="7"/>
+      <c r="Y17" s="7"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
       <c r="AC17" s="2"/>
       <c r="AD17" s="2"/>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
+      <c r="AE17" s="7"/>
+      <c r="AF17" s="7"/>
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
       <c r="AI17" s="2"/>
       <c r="AJ17" s="2"/>
       <c r="AK17" s="2"/>
-      <c r="AL17" s="9"/>
-      <c r="AM17" s="9"/>
-      <c r="AN17" s="2"/>
-      <c r="AO17" s="2"/>
+      <c r="AL17" s="7"/>
+      <c r="AM17" s="7"/>
+      <c r="AN17" s="7"/>
+      <c r="AO17" s="7"/>
       <c r="AP17" s="2"/>
       <c r="AQ17" s="2"/>
       <c r="AR17" s="2"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="7"/>
+      <c r="BA17" s="7"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="7"/>
+      <c r="BH17" s="7"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
     </row>
-    <row r="18" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A18" s="6">
+    <row r="18" spans="1:64" ht="16.5" customHeight="1">
+      <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="23"/>
-      <c r="C18" s="8" t="s">
+      <c r="B18" s="20"/>
+      <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -1763,49 +2368,69 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
       <c r="U18" s="2"/>
-      <c r="V18" s="7"/>
+      <c r="V18" s="5"/>
       <c r="W18" s="2"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
+      <c r="X18" s="7"/>
+      <c r="Y18" s="7"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
       <c r="AC18" s="2"/>
       <c r="AD18" s="2"/>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
+      <c r="AE18" s="7"/>
+      <c r="AF18" s="7"/>
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
       <c r="AI18" s="2"/>
       <c r="AJ18" s="2"/>
       <c r="AK18" s="2"/>
-      <c r="AL18" s="9"/>
-      <c r="AM18" s="9"/>
-      <c r="AN18" s="2"/>
-      <c r="AO18" s="2"/>
+      <c r="AL18" s="7"/>
+      <c r="AM18" s="7"/>
+      <c r="AN18" s="7"/>
+      <c r="AO18" s="7"/>
       <c r="AP18" s="2"/>
       <c r="AQ18" s="2"/>
       <c r="AR18" s="2"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="7"/>
+      <c r="BA18" s="7"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="7"/>
+      <c r="BH18" s="7"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
     </row>
-    <row r="19" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A19" s="6">
+    <row r="19" spans="1:64" ht="16.5" customHeight="1">
+      <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="13" t="s">
+      <c r="B19" s="21"/>
+      <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D19" s="1" t="s">
@@ -1815,51 +2440,71 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="7"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="7"/>
-      <c r="M19" s="7"/>
-      <c r="N19" s="7"/>
-      <c r="O19" s="16"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
+      <c r="O19" s="13"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
+      <c r="X19" s="7"/>
+      <c r="Y19" s="7"/>
       <c r="Z19" s="2"/>
-      <c r="AA19" s="7"/>
+      <c r="AA19" s="5"/>
       <c r="AB19" s="2"/>
       <c r="AC19" s="2"/>
       <c r="AD19" s="2"/>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
+      <c r="AE19" s="7"/>
+      <c r="AF19" s="7"/>
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
       <c r="AI19" s="2"/>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
-      <c r="AL19" s="9"/>
-      <c r="AM19" s="9"/>
-      <c r="AN19" s="2"/>
-      <c r="AO19" s="2"/>
+      <c r="AL19" s="7"/>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
       <c r="AP19" s="2"/>
       <c r="AQ19" s="2"/>
       <c r="AR19" s="2"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="7"/>
+      <c r="BA19" s="7"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="7"/>
+      <c r="BH19" s="7"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
     </row>
-    <row r="20" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A20" s="6">
+    <row r="20" spans="1:64" ht="16.5" customHeight="1">
+      <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -1870,48 +2515,68 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
+      <c r="X20" s="7"/>
+      <c r="Y20" s="7"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
       <c r="AC20" s="2"/>
       <c r="AD20" s="2"/>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
+      <c r="AE20" s="7"/>
+      <c r="AF20" s="7"/>
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
       <c r="AI20" s="2"/>
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
-      <c r="AL20" s="9"/>
-      <c r="AM20" s="9"/>
-      <c r="AN20" s="2"/>
-      <c r="AO20" s="2"/>
+      <c r="AL20" s="7"/>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
       <c r="AP20" s="2"/>
       <c r="AQ20" s="2"/>
       <c r="AR20" s="2"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="7"/>
+      <c r="BA20" s="7"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="7"/>
+      <c r="BH20" s="7"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
     </row>
-    <row r="21" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A21" s="6">
+    <row r="21" spans="1:64" ht="16.5" customHeight="1">
+      <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="23"/>
-      <c r="C21" s="14" t="s">
+      <c r="B21" s="20"/>
+      <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -1922,48 +2587,68 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
+      <c r="X21" s="7"/>
+      <c r="Y21" s="7"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
       <c r="AC21" s="2"/>
-      <c r="AD21" s="7"/>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="7"/>
-      <c r="AH21" s="7"/>
-      <c r="AI21" s="7"/>
-      <c r="AJ21" s="7"/>
-      <c r="AK21" s="2"/>
-      <c r="AL21" s="9"/>
-      <c r="AM21" s="9"/>
-      <c r="AN21" s="2"/>
-      <c r="AO21" s="2"/>
+      <c r="AD21" s="5"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="7"/>
+      <c r="AG21" s="5"/>
+      <c r="AH21" s="5"/>
+      <c r="AI21" s="5"/>
+      <c r="AJ21" s="5"/>
+      <c r="AK21" s="5"/>
+      <c r="AL21" s="7"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7"/>
       <c r="AP21" s="2"/>
       <c r="AQ21" s="2"/>
       <c r="AR21" s="2"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="7"/>
+      <c r="BA21" s="7"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="7"/>
+      <c r="BH21" s="7"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
     </row>
-    <row r="22" spans="1:44" ht="16.5" customHeight="1">
-      <c r="A22" s="6">
+    <row r="22" spans="1:64" ht="16.5" customHeight="1">
+      <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="23"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="21"/>
+      <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1974,50 +2659,70 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
-      <c r="V22" s="19"/>
-      <c r="W22" s="7"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
+      <c r="V22" s="16"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
       <c r="AC22" s="2"/>
       <c r="AD22" s="2"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="9"/>
+      <c r="AE22" s="7"/>
+      <c r="AF22" s="7"/>
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
       <c r="AK22" s="2"/>
-      <c r="AL22" s="9"/>
-      <c r="AM22" s="9"/>
-      <c r="AN22" s="2"/>
-      <c r="AO22" s="2"/>
+      <c r="AL22" s="7"/>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
       <c r="AP22" s="2"/>
       <c r="AQ22" s="2"/>
       <c r="AR22" s="2"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="7"/>
+      <c r="BA22" s="7"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="7"/>
+      <c r="BH22" s="7"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
     </row>
-    <row r="23" spans="1:44">
-      <c r="A23" s="6">
+    <row r="23" spans="1:64">
+      <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="6" t="s">
         <v>25</v>
       </c>
       <c r="D23" s="1" t="s">
@@ -2028,48 +2733,68 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="7"/>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="16"/>
+      <c r="O23" s="5"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="5"/>
+      <c r="T23" s="5"/>
+      <c r="U23" s="5"/>
+      <c r="V23" s="13"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="9"/>
-      <c r="Y23" s="9"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
       <c r="AC23" s="2"/>
       <c r="AD23" s="2"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="9"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
-      <c r="AL23" s="9"/>
-      <c r="AM23" s="9"/>
-      <c r="AN23" s="2"/>
-      <c r="AO23" s="2"/>
+      <c r="AL23" s="7"/>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
       <c r="AP23" s="2"/>
-      <c r="AQ23" s="2"/>
-      <c r="AR23" s="2"/>
+      <c r="AQ23" s="5"/>
+      <c r="AR23" s="5"/>
+      <c r="AS23" s="7"/>
+      <c r="AT23" s="7"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="7"/>
+      <c r="BA23" s="7"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="7"/>
+      <c r="BH23" s="7"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
     </row>
-    <row r="24" spans="1:44">
-      <c r="A24" s="6">
+    <row r="24" spans="1:64">
+      <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="8" t="s">
+      <c r="B24" s="20"/>
+      <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2080,48 +2805,68 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="7"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="5"/>
       <c r="T24" s="2"/>
       <c r="U24" s="2"/>
-      <c r="V24" s="18"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="9"/>
-      <c r="Y24" s="9"/>
+      <c r="V24" s="15"/>
+      <c r="W24" s="5"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
       <c r="AC24" s="2"/>
       <c r="AD24" s="2"/>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="9"/>
+      <c r="AE24" s="7"/>
+      <c r="AF24" s="7"/>
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
       <c r="AJ24" s="2"/>
       <c r="AK24" s="2"/>
-      <c r="AL24" s="9"/>
-      <c r="AM24" s="9"/>
-      <c r="AN24" s="2"/>
-      <c r="AO24" s="2"/>
+      <c r="AL24" s="7"/>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7"/>
       <c r="AP24" s="2"/>
-      <c r="AQ24" s="7"/>
-      <c r="AR24" s="2"/>
+      <c r="AQ24" s="5"/>
+      <c r="AR24" s="5"/>
+      <c r="AS24" s="7"/>
+      <c r="AT24" s="7"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="7"/>
+      <c r="BA24" s="7"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="7"/>
+      <c r="BH24" s="7"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
     </row>
-    <row r="25" spans="1:44">
-      <c r="A25" s="6">
+    <row r="25" spans="1:64">
+      <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="8" t="s">
+      <c r="B25" s="20"/>
+      <c r="C25" s="6" t="s">
         <v>19</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2132,48 +2877,68 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25" s="2"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="9"/>
-      <c r="Y25" s="9"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
+      <c r="W25" s="5"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="5"/>
+      <c r="AA25" s="5"/>
       <c r="AB25" s="2"/>
       <c r="AC25" s="2"/>
       <c r="AD25" s="2"/>
-      <c r="AE25" s="9"/>
-      <c r="AF25" s="9"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
       <c r="AK25" s="2"/>
-      <c r="AL25" s="9"/>
-      <c r="AM25" s="9"/>
-      <c r="AN25" s="2"/>
-      <c r="AO25" s="2"/>
+      <c r="AL25" s="7"/>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
       <c r="AP25" s="2"/>
       <c r="AQ25" s="2"/>
       <c r="AR25" s="2"/>
+      <c r="AS25" s="7"/>
+      <c r="AT25" s="7"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="7"/>
+      <c r="BA25" s="7"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="7"/>
+      <c r="BH25" s="7"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
     </row>
-    <row r="26" spans="1:44">
-      <c r="A26" s="6">
+    <row r="26" spans="1:64">
+      <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="23"/>
-      <c r="C26" s="8" t="s">
+      <c r="B26" s="20"/>
+      <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2184,48 +2949,68 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26" s="2"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
-      <c r="W26" s="7"/>
-      <c r="X26" s="9"/>
-      <c r="Y26" s="9"/>
+      <c r="W26" s="5"/>
+      <c r="X26" s="7"/>
+      <c r="Y26" s="7"/>
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
       <c r="AD26" s="2"/>
-      <c r="AE26" s="9"/>
-      <c r="AF26" s="9"/>
+      <c r="AE26" s="7"/>
+      <c r="AF26" s="7"/>
       <c r="AG26" s="2"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="16"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="13"/>
       <c r="AK26" s="2"/>
-      <c r="AL26" s="9"/>
-      <c r="AM26" s="9"/>
-      <c r="AN26" s="2"/>
-      <c r="AO26" s="2"/>
+      <c r="AL26" s="7"/>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
       <c r="AP26" s="2"/>
-      <c r="AQ26" s="7"/>
-      <c r="AR26" s="2"/>
+      <c r="AQ26" s="5"/>
+      <c r="AR26" s="5"/>
+      <c r="AS26" s="7"/>
+      <c r="AT26" s="7"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="7"/>
+      <c r="BA26" s="7"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="7"/>
+      <c r="BH26" s="7"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
     </row>
-    <row r="27" spans="1:44">
-      <c r="A27" s="6">
+    <row r="27" spans="1:64">
+      <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="23"/>
-      <c r="C27" s="15" t="s">
+      <c r="B27" s="20"/>
+      <c r="C27" s="12" t="s">
         <v>24</v>
       </c>
       <c r="D27" s="1" t="s">
@@ -2236,48 +3021,68 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
-      <c r="W27" s="20"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
+      <c r="W27" s="17"/>
+      <c r="X27" s="7"/>
+      <c r="Y27" s="7"/>
       <c r="Z27" s="2"/>
       <c r="AA27" s="2"/>
       <c r="AB27" s="2"/>
       <c r="AC27" s="2"/>
       <c r="AD27" s="2"/>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
+      <c r="AE27" s="7"/>
+      <c r="AF27" s="7"/>
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
       <c r="AI27" s="2"/>
       <c r="AJ27" s="2"/>
       <c r="AK27" s="2"/>
-      <c r="AL27" s="9"/>
-      <c r="AM27" s="9"/>
-      <c r="AN27" s="2"/>
-      <c r="AO27" s="2"/>
+      <c r="AL27" s="7"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="7"/>
       <c r="AP27" s="2"/>
       <c r="AQ27" s="2"/>
       <c r="AR27" s="2"/>
+      <c r="AS27" s="7"/>
+      <c r="AT27" s="7"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="7"/>
+      <c r="BA27" s="7"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="7"/>
+      <c r="BH27" s="7"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
     </row>
-    <row r="28" spans="1:44">
-      <c r="A28" s="6">
+    <row r="28" spans="1:64">
+      <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="8" t="s">
+      <c r="B28" s="20"/>
+      <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
       <c r="D28" s="1" t="s">
@@ -2288,51 +3093,71 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-      <c r="X28" s="9"/>
-      <c r="Y28" s="9"/>
+      <c r="X28" s="7"/>
+      <c r="Y28" s="7"/>
       <c r="Z28" s="2"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
       <c r="AD28" s="2"/>
-      <c r="AE28" s="9"/>
-      <c r="AF28" s="9"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
       <c r="AG28" s="2"/>
-      <c r="AH28" s="7"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="16"/>
+      <c r="AH28" s="5"/>
+      <c r="AI28" s="13"/>
+      <c r="AJ28" s="13"/>
       <c r="AK28" s="2"/>
-      <c r="AL28" s="9"/>
-      <c r="AM28" s="9"/>
-      <c r="AN28" s="2"/>
-      <c r="AO28" s="2"/>
+      <c r="AL28" s="7"/>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
       <c r="AP28" s="2"/>
       <c r="AQ28" s="2"/>
       <c r="AR28" s="2"/>
+      <c r="AS28" s="7"/>
+      <c r="AT28" s="7"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="7"/>
+      <c r="BA28" s="7"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="7"/>
+      <c r="BH28" s="7"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
     </row>
-    <row r="29" spans="1:44">
-      <c r="A29" s="6">
+    <row r="29" spans="1:64">
+      <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="24"/>
-      <c r="C29" s="8" t="s">
+      <c r="B29" s="21"/>
+      <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="D29" s="21" t="s">
+      <c r="D29" s="18" t="s">
         <v>23</v>
       </c>
       <c r="E29" s="2"/>
@@ -2340,50 +3165,70 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
-      <c r="J29" s="9"/>
-      <c r="K29" s="9"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
       <c r="S29" s="2"/>
-      <c r="T29" s="7"/>
-      <c r="U29" s="7"/>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
+      <c r="X29" s="7"/>
+      <c r="Y29" s="7"/>
       <c r="Z29" s="2"/>
       <c r="AA29" s="2"/>
       <c r="AB29" s="2"/>
       <c r="AC29" s="2"/>
       <c r="AD29" s="2"/>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
+      <c r="AE29" s="7"/>
+      <c r="AF29" s="7"/>
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
       <c r="AI29" s="2"/>
       <c r="AJ29" s="2"/>
       <c r="AK29" s="2"/>
-      <c r="AL29" s="9"/>
-      <c r="AM29" s="9"/>
-      <c r="AN29" s="2"/>
-      <c r="AO29" s="2"/>
+      <c r="AL29" s="7"/>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
       <c r="AP29" s="2"/>
       <c r="AQ29" s="2"/>
       <c r="AR29" s="2"/>
+      <c r="AS29" s="7"/>
+      <c r="AT29" s="7"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="7"/>
+      <c r="BA29" s="7"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="7"/>
+      <c r="BH29" s="7"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
     </row>
-    <row r="30" spans="1:44">
-      <c r="A30" s="6">
+    <row r="30" spans="1:64">
+      <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -2394,48 +3239,68 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
-      <c r="J30" s="9"/>
-      <c r="K30" s="9"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
+      <c r="P30" s="5"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
       <c r="S30" s="2"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="7"/>
+      <c r="T30" s="5"/>
+      <c r="U30" s="5"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
+      <c r="X30" s="7"/>
+      <c r="Y30" s="7"/>
       <c r="Z30" s="2"/>
       <c r="AA30" s="2"/>
       <c r="AB30" s="2"/>
       <c r="AC30" s="2"/>
       <c r="AD30" s="2"/>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
+      <c r="AE30" s="7"/>
+      <c r="AF30" s="7"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="7"/>
-      <c r="AI30" s="7"/>
+      <c r="AH30" s="5"/>
+      <c r="AI30" s="5"/>
       <c r="AJ30" s="2"/>
       <c r="AK30" s="2"/>
-      <c r="AL30" s="9"/>
-      <c r="AM30" s="9"/>
-      <c r="AN30" s="2"/>
-      <c r="AO30" s="2"/>
+      <c r="AL30" s="7"/>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="7"/>
+      <c r="AO30" s="7"/>
       <c r="AP30" s="2"/>
       <c r="AQ30" s="2"/>
       <c r="AR30" s="2"/>
+      <c r="AS30" s="7"/>
+      <c r="AT30" s="7"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="7"/>
+      <c r="BA30" s="7"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="7"/>
+      <c r="BH30" s="7"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
     </row>
-    <row r="31" spans="1:44" ht="17" customHeight="1">
-      <c r="A31" s="6">
+    <row r="31" spans="1:64" ht="17" customHeight="1">
+      <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="23"/>
-      <c r="C31" s="8" t="s">
+      <c r="B31" s="20"/>
+      <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2446,48 +3311,68 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
-      <c r="J31" s="9"/>
-      <c r="K31" s="9"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="5"/>
       <c r="T31" s="2"/>
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
+      <c r="X31" s="7"/>
+      <c r="Y31" s="7"/>
       <c r="Z31" s="2"/>
       <c r="AA31" s="2"/>
       <c r="AB31" s="2"/>
       <c r="AC31" s="2"/>
       <c r="AD31" s="2"/>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
+      <c r="AE31" s="7"/>
+      <c r="AF31" s="7"/>
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
       <c r="AI31" s="2"/>
       <c r="AJ31" s="2"/>
       <c r="AK31" s="2"/>
-      <c r="AL31" s="9"/>
-      <c r="AM31" s="9"/>
-      <c r="AN31" s="2"/>
-      <c r="AO31" s="2"/>
+      <c r="AL31" s="7"/>
+      <c r="AM31" s="7"/>
+      <c r="AN31" s="7"/>
+      <c r="AO31" s="7"/>
       <c r="AP31" s="2"/>
       <c r="AQ31" s="2"/>
       <c r="AR31" s="2"/>
+      <c r="AS31" s="7"/>
+      <c r="AT31" s="7"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="7"/>
+      <c r="BA31" s="7"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="7"/>
+      <c r="BH31" s="7"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
     </row>
-    <row r="32" spans="1:44" ht="17" customHeight="1">
-      <c r="A32" s="6">
+    <row r="32" spans="1:64" ht="17" customHeight="1">
+      <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="8" t="s">
+      <c r="B32" s="20"/>
+      <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
       <c r="D32" s="1" t="s">
@@ -2498,47 +3383,67 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
-      <c r="J32" s="9"/>
-      <c r="K32" s="9"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="5"/>
       <c r="T32" s="2"/>
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
+      <c r="X32" s="7"/>
+      <c r="Y32" s="7"/>
       <c r="Z32" s="2"/>
       <c r="AA32" s="2"/>
       <c r="AB32" s="2"/>
       <c r="AC32" s="2"/>
       <c r="AD32" s="2"/>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
+      <c r="AE32" s="7"/>
+      <c r="AF32" s="7"/>
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
       <c r="AI32" s="2"/>
       <c r="AJ32" s="2"/>
       <c r="AK32" s="2"/>
-      <c r="AL32" s="9"/>
-      <c r="AM32" s="9"/>
-      <c r="AN32" s="2"/>
-      <c r="AO32" s="2"/>
+      <c r="AL32" s="7"/>
+      <c r="AM32" s="7"/>
+      <c r="AN32" s="7"/>
+      <c r="AO32" s="7"/>
       <c r="AP32" s="2"/>
       <c r="AQ32" s="2"/>
       <c r="AR32" s="2"/>
+      <c r="AS32" s="7"/>
+      <c r="AT32" s="7"/>
+      <c r="AU32" s="2"/>
+      <c r="AV32" s="2"/>
+      <c r="AW32" s="2"/>
+      <c r="AX32" s="2"/>
+      <c r="AY32" s="2"/>
+      <c r="AZ32" s="7"/>
+      <c r="BA32" s="7"/>
+      <c r="BB32" s="2"/>
+      <c r="BC32" s="2"/>
+      <c r="BD32" s="2"/>
+      <c r="BE32" s="2"/>
+      <c r="BF32" s="2"/>
+      <c r="BG32" s="7"/>
+      <c r="BH32" s="7"/>
+      <c r="BI32" s="2"/>
+      <c r="BJ32" s="2"/>
+      <c r="BK32" s="2"/>
+      <c r="BL32" s="2"/>
     </row>
-    <row r="33" spans="1:44">
-      <c r="A33" s="6">
+    <row r="33" spans="1:64">
+      <c r="A33" s="4">
         <v>28</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="14" t="s">
         <v>40</v>
       </c>
       <c r="C33" s="2" t="s">
@@ -2552,52 +3457,73 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
-      <c r="J33" s="9"/>
-      <c r="K33" s="9"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="9"/>
-      <c r="R33" s="9"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
-      <c r="U33" s="7"/>
-      <c r="V33" s="7"/>
+      <c r="U33" s="5"/>
+      <c r="V33" s="5"/>
       <c r="W33" s="2"/>
-      <c r="X33" s="9"/>
-      <c r="Y33" s="9"/>
-      <c r="Z33" s="7"/>
+      <c r="X33" s="7"/>
+      <c r="Y33" s="7"/>
+      <c r="Z33" s="5"/>
       <c r="AA33" s="2"/>
       <c r="AB33" s="2"/>
       <c r="AC33" s="2"/>
       <c r="AD33" s="2"/>
-      <c r="AE33" s="9"/>
-      <c r="AF33" s="9"/>
+      <c r="AE33" s="7"/>
+      <c r="AF33" s="7"/>
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
       <c r="AI33" s="2"/>
       <c r="AJ33" s="2"/>
       <c r="AK33" s="2"/>
-      <c r="AL33" s="9"/>
-      <c r="AM33" s="9"/>
-      <c r="AN33" s="2"/>
-      <c r="AO33" s="2"/>
-      <c r="AP33" s="7"/>
-      <c r="AQ33" s="7"/>
+      <c r="AL33" s="7"/>
+      <c r="AM33" s="7"/>
+      <c r="AN33" s="7"/>
+      <c r="AO33" s="7"/>
+      <c r="AP33" s="5"/>
+      <c r="AQ33" s="5"/>
       <c r="AR33" s="2"/>
+      <c r="AS33" s="7"/>
+      <c r="AT33" s="7"/>
+      <c r="AU33" s="2"/>
+      <c r="AV33" s="2"/>
+      <c r="AW33" s="2"/>
+      <c r="AX33" s="2"/>
+      <c r="AY33" s="2"/>
+      <c r="AZ33" s="7"/>
+      <c r="BA33" s="7"/>
+      <c r="BB33" s="2"/>
+      <c r="BC33" s="2"/>
+      <c r="BD33" s="2"/>
+      <c r="BE33" s="2"/>
+      <c r="BF33" s="2"/>
+      <c r="BG33" s="7"/>
+      <c r="BH33" s="7"/>
+      <c r="BI33" s="2"/>
+      <c r="BJ33" s="2"/>
+      <c r="BK33" s="2"/>
+      <c r="BL33" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="R4:AV4"/>
+    <mergeCell ref="A3:BL3"/>
+    <mergeCell ref="AW4:BL4"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B6:B16"/>
     <mergeCell ref="C4:C5"/>
-    <mergeCell ref="A3:AR3"/>
     <mergeCell ref="D4:D5"/>
     <mergeCell ref="E4:Q4"/>
-    <mergeCell ref="R4:AR4"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B17:B19"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8424B0-D20C-6542-8495-A938C7329BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC91CE-DA7E-5645-A341-CF570426AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -428,48 +428,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -477,7 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -535,6 +493,42 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -547,6 +541,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -556,64 +553,19 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -962,14 +914,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CL33"/>
+  <dimension ref="A2:CT33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" zoomScaleNormal="400" workbookViewId="0">
       <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomRight" activeCell="BU14" sqref="BU14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -979,279 +931,280 @@
     <col min="4" max="4" width="6.6640625" customWidth="1"/>
     <col min="5" max="44" width="3.6640625" customWidth="1"/>
     <col min="45" max="45" width="3.5" customWidth="1"/>
-    <col min="46" max="64" width="3.6640625" customWidth="1"/>
+    <col min="46" max="72" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:90">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="27"/>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="27"/>
-      <c r="AB2" s="27"/>
-      <c r="AC2" s="27"/>
-      <c r="AD2" s="27"/>
-      <c r="AE2" s="27"/>
-      <c r="AF2" s="27"/>
-      <c r="AG2" s="27"/>
-      <c r="AH2" s="27"/>
-      <c r="AI2" s="27"/>
-      <c r="AJ2" s="27"/>
-      <c r="AK2" s="27"/>
-      <c r="AL2" s="27"/>
-      <c r="AM2" s="27"/>
-      <c r="AN2" s="27"/>
-      <c r="AO2" s="27"/>
-      <c r="AP2" s="27"/>
-      <c r="AQ2" s="27"/>
-      <c r="AR2" s="27"/>
-      <c r="AS2" s="45"/>
-      <c r="AT2" s="27"/>
-      <c r="AU2" s="27"/>
-      <c r="AV2" s="27"/>
-      <c r="AW2" s="27"/>
-      <c r="AX2" s="27"/>
-      <c r="AY2" s="27"/>
-      <c r="AZ2" s="27"/>
-      <c r="BA2" s="27"/>
-      <c r="BB2" s="27"/>
-      <c r="BC2" s="27"/>
-      <c r="BD2" s="27"/>
-      <c r="BE2" s="27"/>
-      <c r="BF2" s="27"/>
-      <c r="BG2" s="27"/>
-      <c r="BH2" s="27"/>
-      <c r="BI2" s="27"/>
-      <c r="BJ2" s="27"/>
-      <c r="BK2" s="27"/>
-      <c r="BL2" s="29"/>
-      <c r="BM2" s="30"/>
+    <row r="2" spans="1:98">
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+      <c r="Q2" s="39"/>
+      <c r="R2" s="39"/>
+      <c r="S2" s="39"/>
+      <c r="T2" s="39"/>
+      <c r="U2" s="39"/>
+      <c r="V2" s="39"/>
+      <c r="W2" s="39"/>
+      <c r="X2" s="39"/>
+      <c r="Y2" s="39"/>
+      <c r="Z2" s="39"/>
+      <c r="AA2" s="39"/>
+      <c r="AB2" s="39"/>
+      <c r="AC2" s="39"/>
+      <c r="AD2" s="39"/>
+      <c r="AE2" s="39"/>
+      <c r="AF2" s="39"/>
+      <c r="AG2" s="39"/>
+      <c r="AH2" s="39"/>
+      <c r="AI2" s="39"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+      <c r="AP2" s="39"/>
+      <c r="AQ2" s="39"/>
+      <c r="AR2" s="39"/>
+      <c r="AS2" s="39"/>
+      <c r="AT2" s="39"/>
+      <c r="AU2" s="39"/>
+      <c r="AV2" s="39"/>
+      <c r="AW2" s="39"/>
+      <c r="AX2" s="39"/>
+      <c r="AY2" s="39"/>
+      <c r="AZ2" s="39"/>
+      <c r="BA2" s="39"/>
+      <c r="BB2" s="39"/>
+      <c r="BC2" s="39"/>
+      <c r="BD2" s="39"/>
+      <c r="BE2" s="39"/>
+      <c r="BF2" s="39"/>
+      <c r="BG2" s="39"/>
+      <c r="BH2" s="39"/>
+      <c r="BI2" s="39"/>
+      <c r="BJ2" s="39"/>
+      <c r="BK2" s="39"/>
+      <c r="BL2" s="39"/>
+      <c r="BM2" s="39"/>
+      <c r="BN2" s="39"/>
+      <c r="BO2" s="39"/>
+      <c r="BP2" s="39"/>
+      <c r="BQ2" s="39"/>
+      <c r="BR2" s="39"/>
+      <c r="BS2" s="39"/>
+      <c r="BT2" s="39"/>
+      <c r="BU2" s="39"/>
     </row>
-    <row r="3" spans="1:90">
-      <c r="A3" s="43" t="s">
+    <row r="3" spans="1:98">
+      <c r="A3" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43"/>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43"/>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43"/>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43"/>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="43"/>
-      <c r="AH3" s="43"/>
-      <c r="AI3" s="43"/>
-      <c r="AJ3" s="43"/>
-      <c r="AK3" s="43"/>
-      <c r="AL3" s="43"/>
-      <c r="AM3" s="43"/>
-      <c r="AN3" s="43"/>
-      <c r="AO3" s="43"/>
-      <c r="AP3" s="43"/>
-      <c r="AQ3" s="43"/>
-      <c r="AR3" s="43"/>
-      <c r="AS3" s="43"/>
-      <c r="AT3" s="43"/>
-      <c r="AU3" s="43"/>
-      <c r="AV3" s="43"/>
-      <c r="AW3" s="43"/>
-      <c r="AX3" s="43"/>
-      <c r="AY3" s="43"/>
-      <c r="AZ3" s="43"/>
-      <c r="BA3" s="43"/>
-      <c r="BB3" s="43"/>
-      <c r="BC3" s="43"/>
-      <c r="BD3" s="43"/>
-      <c r="BE3" s="43"/>
-      <c r="BF3" s="43"/>
-      <c r="BG3" s="43"/>
-      <c r="BH3" s="43"/>
-      <c r="BI3" s="43"/>
-      <c r="BJ3" s="43"/>
-      <c r="BK3" s="43"/>
-      <c r="BL3" s="43"/>
-      <c r="BM3" s="28"/>
-      <c r="BN3" s="30"/>
-      <c r="BO3" s="30"/>
-      <c r="BP3" s="30"/>
-      <c r="BQ3" s="30"/>
-      <c r="BR3" s="30"/>
-      <c r="BS3" s="30"/>
-      <c r="BT3" s="30"/>
-      <c r="BU3" s="30"/>
-      <c r="BV3" s="30"/>
-      <c r="BW3" s="30"/>
-      <c r="BX3" s="30"/>
-      <c r="BY3" s="30"/>
-      <c r="BZ3" s="30"/>
-      <c r="CC3" s="30"/>
-      <c r="CD3" s="30"/>
-      <c r="CE3" s="30"/>
-      <c r="CF3" s="30"/>
-      <c r="CG3" s="30"/>
-      <c r="CH3" s="30"/>
-      <c r="CI3" s="30"/>
-      <c r="CJ3" s="30"/>
-      <c r="CK3" s="30"/>
-      <c r="CL3" s="30"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="41"/>
+      <c r="AW3" s="41"/>
+      <c r="AX3" s="41"/>
+      <c r="AY3" s="41"/>
+      <c r="AZ3" s="41"/>
+      <c r="BA3" s="41"/>
+      <c r="BB3" s="41"/>
+      <c r="BC3" s="41"/>
+      <c r="BD3" s="41"/>
+      <c r="BE3" s="41"/>
+      <c r="BF3" s="41"/>
+      <c r="BG3" s="41"/>
+      <c r="BH3" s="41"/>
+      <c r="BI3" s="41"/>
+      <c r="BJ3" s="41"/>
+      <c r="BK3" s="41"/>
+      <c r="BL3" s="41"/>
+      <c r="BM3" s="41"/>
+      <c r="BN3" s="41"/>
+      <c r="BO3" s="41"/>
+      <c r="BP3" s="41"/>
+      <c r="BQ3" s="41"/>
+      <c r="BR3" s="41"/>
+      <c r="BS3" s="41"/>
+      <c r="BT3" s="42"/>
+      <c r="BU3" s="39"/>
     </row>
-    <row r="4" spans="1:90">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:98">
+      <c r="A4" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24"/>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="25"/>
-      <c r="R4" s="32" t="s">
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="37"/>
+      <c r="Q4" s="38"/>
+      <c r="R4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="33"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="33"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="33"/>
-      <c r="AE4" s="33"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="33"/>
-      <c r="AH4" s="33"/>
-      <c r="AI4" s="33"/>
-      <c r="AJ4" s="33"/>
-      <c r="AK4" s="33"/>
-      <c r="AL4" s="33"/>
-      <c r="AM4" s="33"/>
-      <c r="AN4" s="33"/>
-      <c r="AO4" s="33"/>
-      <c r="AP4" s="33"/>
-      <c r="AQ4" s="33"/>
-      <c r="AR4" s="33"/>
-      <c r="AS4" s="33"/>
-      <c r="AT4" s="33"/>
-      <c r="AU4" s="33"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="37" t="s">
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="27"/>
+      <c r="AW4" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="AX4" s="38"/>
-      <c r="AY4" s="38"/>
-      <c r="AZ4" s="38"/>
-      <c r="BA4" s="38"/>
-      <c r="BB4" s="38"/>
-      <c r="BC4" s="38"/>
-      <c r="BD4" s="38"/>
-      <c r="BE4" s="38"/>
-      <c r="BF4" s="38"/>
-      <c r="BG4" s="38"/>
-      <c r="BH4" s="38"/>
-      <c r="BI4" s="38"/>
-      <c r="BJ4" s="38"/>
-      <c r="BK4" s="38"/>
-      <c r="BL4" s="39"/>
-      <c r="BM4" s="31"/>
-      <c r="BN4" s="31"/>
-      <c r="BO4" s="31"/>
-      <c r="BP4" s="31"/>
-      <c r="BQ4" s="31"/>
-      <c r="BR4" s="31"/>
-      <c r="BS4" s="31"/>
-      <c r="BT4" s="31"/>
-      <c r="BU4" s="31"/>
-      <c r="BV4" s="31"/>
-      <c r="BW4" s="31"/>
-      <c r="BX4" s="31"/>
-      <c r="BY4" s="31"/>
-      <c r="BZ4" s="31"/>
-      <c r="CA4" s="31"/>
-      <c r="CB4" s="31"/>
-      <c r="CC4" s="31"/>
-      <c r="CD4" s="31"/>
-      <c r="CE4" s="31"/>
-      <c r="CF4" s="31"/>
-      <c r="CG4" s="31"/>
-      <c r="CH4" s="31"/>
-      <c r="CI4" s="31"/>
-      <c r="CJ4" s="31"/>
-      <c r="CK4" s="31"/>
-      <c r="CL4" s="31"/>
+      <c r="AX4" s="29"/>
+      <c r="AY4" s="29"/>
+      <c r="AZ4" s="29"/>
+      <c r="BA4" s="29"/>
+      <c r="BB4" s="29"/>
+      <c r="BC4" s="29"/>
+      <c r="BD4" s="29"/>
+      <c r="BE4" s="29"/>
+      <c r="BF4" s="29"/>
+      <c r="BG4" s="29"/>
+      <c r="BH4" s="29"/>
+      <c r="BI4" s="29"/>
+      <c r="BJ4" s="29"/>
+      <c r="BK4" s="29"/>
+      <c r="BL4" s="29"/>
+      <c r="BM4" s="29"/>
+      <c r="BN4" s="29"/>
+      <c r="BO4" s="29"/>
+      <c r="BP4" s="29"/>
+      <c r="BQ4" s="29"/>
+      <c r="BR4" s="29"/>
+      <c r="BS4" s="29"/>
+      <c r="BT4" s="30"/>
+      <c r="BU4" s="43"/>
+      <c r="BV4" s="19"/>
+      <c r="BW4" s="19"/>
+      <c r="BX4" s="19"/>
+      <c r="BY4" s="19"/>
+      <c r="BZ4" s="19"/>
+      <c r="CA4" s="19"/>
+      <c r="CB4" s="19"/>
+      <c r="CC4" s="19"/>
+      <c r="CD4" s="19"/>
+      <c r="CE4" s="19"/>
+      <c r="CF4" s="19"/>
+      <c r="CG4" s="19"/>
+      <c r="CH4" s="19"/>
+      <c r="CI4" s="19"/>
+      <c r="CJ4" s="19"/>
+      <c r="CK4" s="19"/>
+      <c r="CL4" s="19"/>
+      <c r="CM4" s="19"/>
+      <c r="CN4" s="19"/>
+      <c r="CO4" s="19"/>
+      <c r="CP4" s="19"/>
+      <c r="CQ4" s="19"/>
+      <c r="CR4" s="19"/>
+      <c r="CS4" s="19"/>
+      <c r="CT4" s="19"/>
     </row>
-    <row r="5" spans="1:90">
-      <c r="A5" s="22"/>
-      <c r="B5" s="22"/>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
+    <row r="5" spans="1:98">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="34"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1291,177 +1244,178 @@
       <c r="Q5" s="3">
         <v>31</v>
       </c>
-      <c r="R5" s="35">
+      <c r="R5" s="21">
         <v>1</v>
       </c>
-      <c r="S5" s="35">
+      <c r="S5" s="21">
         <v>2</v>
       </c>
-      <c r="T5" s="35">
+      <c r="T5" s="21">
         <v>3</v>
       </c>
-      <c r="U5" s="35">
+      <c r="U5" s="21">
         <v>4</v>
       </c>
-      <c r="V5" s="35">
+      <c r="V5" s="21">
         <v>5</v>
       </c>
-      <c r="W5" s="35">
+      <c r="W5" s="21">
         <v>6</v>
       </c>
-      <c r="X5" s="35">
+      <c r="X5" s="21">
         <v>7</v>
       </c>
-      <c r="Y5" s="35">
+      <c r="Y5" s="21">
         <v>8</v>
       </c>
-      <c r="Z5" s="35">
+      <c r="Z5" s="21">
         <v>9</v>
       </c>
-      <c r="AA5" s="35">
+      <c r="AA5" s="21">
         <v>10</v>
       </c>
-      <c r="AB5" s="35">
+      <c r="AB5" s="21">
         <v>11</v>
       </c>
-      <c r="AC5" s="35">
+      <c r="AC5" s="21">
         <v>12</v>
       </c>
-      <c r="AD5" s="35">
+      <c r="AD5" s="21">
         <v>13</v>
       </c>
-      <c r="AE5" s="35">
+      <c r="AE5" s="21">
         <v>14</v>
       </c>
-      <c r="AF5" s="35">
+      <c r="AF5" s="21">
         <v>15</v>
       </c>
-      <c r="AG5" s="35">
+      <c r="AG5" s="21">
         <v>16</v>
       </c>
-      <c r="AH5" s="35">
+      <c r="AH5" s="21">
         <v>17</v>
       </c>
-      <c r="AI5" s="35">
+      <c r="AI5" s="21">
         <v>18</v>
       </c>
-      <c r="AJ5" s="35">
+      <c r="AJ5" s="21">
         <v>19</v>
       </c>
-      <c r="AK5" s="35">
+      <c r="AK5" s="21">
         <v>20</v>
       </c>
-      <c r="AL5" s="35">
+      <c r="AL5" s="21">
         <v>21</v>
       </c>
-      <c r="AM5" s="35">
+      <c r="AM5" s="21">
         <v>22</v>
       </c>
-      <c r="AN5" s="35">
+      <c r="AN5" s="21">
         <v>23</v>
       </c>
-      <c r="AO5" s="35">
+      <c r="AO5" s="21">
         <v>24</v>
       </c>
-      <c r="AP5" s="35">
+      <c r="AP5" s="21">
         <v>25</v>
       </c>
-      <c r="AQ5" s="35">
+      <c r="AQ5" s="21">
         <v>26</v>
       </c>
-      <c r="AR5" s="35">
+      <c r="AR5" s="21">
         <v>27</v>
       </c>
-      <c r="AS5" s="36">
+      <c r="AS5" s="20">
         <v>28</v>
       </c>
-      <c r="AT5" s="40">
+      <c r="AT5" s="22">
         <v>29</v>
       </c>
-      <c r="AU5" s="40">
+      <c r="AU5" s="22">
         <v>30</v>
       </c>
-      <c r="AV5" s="40">
+      <c r="AV5" s="22">
         <v>31</v>
       </c>
-      <c r="AW5" s="40">
+      <c r="AW5" s="22">
         <v>1</v>
       </c>
-      <c r="AX5" s="40">
+      <c r="AX5" s="22">
         <v>2</v>
       </c>
-      <c r="AY5" s="40">
+      <c r="AY5" s="22">
         <v>3</v>
       </c>
-      <c r="AZ5" s="40">
+      <c r="AZ5" s="22">
         <v>4</v>
       </c>
-      <c r="BA5" s="40">
+      <c r="BA5" s="22">
         <v>5</v>
       </c>
-      <c r="BB5" s="40">
+      <c r="BB5" s="22">
         <v>6</v>
       </c>
-      <c r="BC5" s="40">
+      <c r="BC5" s="22">
         <v>7</v>
       </c>
-      <c r="BD5" s="40">
+      <c r="BD5" s="22">
         <v>8</v>
       </c>
-      <c r="BE5" s="40">
+      <c r="BE5" s="22">
         <v>9</v>
       </c>
-      <c r="BF5" s="40">
+      <c r="BF5" s="22">
         <v>10</v>
       </c>
-      <c r="BG5" s="40">
+      <c r="BG5" s="22">
         <v>11</v>
       </c>
-      <c r="BH5" s="40">
+      <c r="BH5" s="22">
         <v>12</v>
       </c>
-      <c r="BI5" s="40">
+      <c r="BI5" s="22">
         <v>13</v>
       </c>
-      <c r="BJ5" s="40">
+      <c r="BJ5" s="22">
         <v>14</v>
       </c>
-      <c r="BK5" s="40">
+      <c r="BK5" s="22">
         <v>15</v>
       </c>
-      <c r="BL5" s="40">
+      <c r="BL5" s="22">
         <v>16</v>
       </c>
-      <c r="BM5" s="30"/>
-      <c r="BN5" s="30"/>
-      <c r="BO5" s="30"/>
-      <c r="BP5" s="30"/>
-      <c r="BQ5" s="30"/>
-      <c r="BR5" s="30"/>
-      <c r="BS5" s="30"/>
-      <c r="BT5" s="30"/>
-      <c r="BU5" s="30"/>
-      <c r="BV5" s="30"/>
-      <c r="BW5" s="30"/>
-      <c r="BX5" s="30"/>
-      <c r="BY5" s="30"/>
-      <c r="BZ5" s="30"/>
-      <c r="CA5" s="30"/>
-      <c r="CB5" s="30"/>
-      <c r="CC5" s="30"/>
-      <c r="CD5" s="30"/>
-      <c r="CE5" s="30"/>
-      <c r="CF5" s="30"/>
-      <c r="CG5" s="30"/>
-      <c r="CH5" s="30"/>
-      <c r="CI5" s="30"/>
-      <c r="CJ5" s="30"/>
+      <c r="BM5" s="22">
+        <v>17</v>
+      </c>
+      <c r="BN5" s="22">
+        <v>18</v>
+      </c>
+      <c r="BO5" s="22">
+        <v>19</v>
+      </c>
+      <c r="BP5" s="22">
+        <v>20</v>
+      </c>
+      <c r="BQ5" s="22">
+        <v>21</v>
+      </c>
+      <c r="BR5" s="22">
+        <v>22</v>
+      </c>
+      <c r="BS5" s="22">
+        <v>23</v>
+      </c>
+      <c r="BT5" s="22">
+        <v>24</v>
+      </c>
+      <c r="BU5" s="39"/>
     </row>
-    <row r="6" spans="1:90" ht="16.5" customHeight="1">
+    <row r="6" spans="1:98" ht="16.5" customHeight="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="31" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1510,7 +1464,7 @@
       <c r="AP6" s="2"/>
       <c r="AQ6" s="2"/>
       <c r="AR6" s="2"/>
-      <c r="AS6" s="41"/>
+      <c r="AS6" s="23"/>
       <c r="AT6" s="7"/>
       <c r="AU6" s="2"/>
       <c r="AV6" s="2"/>
@@ -1530,26 +1484,20 @@
       <c r="BJ6" s="2"/>
       <c r="BK6" s="2"/>
       <c r="BL6" s="2"/>
-      <c r="BM6" s="30"/>
-      <c r="BN6" s="30"/>
-      <c r="BO6" s="30"/>
-      <c r="BP6" s="30"/>
-      <c r="BQ6" s="30"/>
-      <c r="BR6" s="30"/>
-      <c r="BS6" s="30"/>
-      <c r="BT6" s="30"/>
-      <c r="BU6" s="30"/>
-      <c r="BV6" s="30"/>
-      <c r="BW6" s="30"/>
-      <c r="BX6" s="30"/>
-      <c r="BY6" s="30"/>
-      <c r="BZ6" s="30"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
     </row>
-    <row r="7" spans="1:90" ht="16.5" customHeight="1">
+    <row r="7" spans="1:98" ht="16.5" customHeight="1">
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="20"/>
+      <c r="B7" s="32"/>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1596,7 +1544,7 @@
       <c r="AP7" s="2"/>
       <c r="AQ7" s="2"/>
       <c r="AR7" s="2"/>
-      <c r="AS7" s="42"/>
+      <c r="AS7" s="24"/>
       <c r="AT7" s="7"/>
       <c r="AU7" s="2"/>
       <c r="AV7" s="2"/>
@@ -1616,25 +1564,21 @@
       <c r="BJ7" s="2"/>
       <c r="BK7" s="2"/>
       <c r="BL7" s="2"/>
-      <c r="BN7" s="30"/>
-      <c r="BO7" s="30"/>
-      <c r="BP7" s="30"/>
-      <c r="BQ7" s="30"/>
-      <c r="BR7" s="30"/>
-      <c r="BS7" s="30"/>
-      <c r="BT7" s="30"/>
-      <c r="BU7" s="30"/>
-      <c r="BV7" s="30"/>
-      <c r="BW7" s="30"/>
-      <c r="BX7" s="30"/>
-      <c r="BY7" s="30"/>
-      <c r="BZ7" s="30"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BV7" s="2"/>
     </row>
-    <row r="8" spans="1:90" ht="16.5" customHeight="1">
+    <row r="8" spans="1:98" ht="16.5" customHeight="1">
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="20"/>
+      <c r="B8" s="32"/>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1701,12 +1645,20 @@
       <c r="BJ8" s="2"/>
       <c r="BK8" s="2"/>
       <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
     </row>
-    <row r="9" spans="1:90" ht="16.5" customHeight="1">
+    <row r="9" spans="1:98" ht="16.5" customHeight="1">
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="32"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1773,12 +1725,20 @@
       <c r="BJ9" s="2"/>
       <c r="BK9" s="2"/>
       <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
     </row>
-    <row r="10" spans="1:90" ht="16.5" customHeight="1">
+    <row r="10" spans="1:98" ht="16.5" customHeight="1">
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="32"/>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1845,12 +1805,20 @@
       <c r="BJ10" s="2"/>
       <c r="BK10" s="2"/>
       <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
     </row>
-    <row r="11" spans="1:90" ht="16.5" customHeight="1">
+    <row r="11" spans="1:98" ht="16.5" customHeight="1">
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="32"/>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1917,12 +1885,20 @@
       <c r="BJ11" s="2"/>
       <c r="BK11" s="2"/>
       <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
     </row>
-    <row r="12" spans="1:90" ht="16.5" customHeight="1">
+    <row r="12" spans="1:98" ht="16.5" customHeight="1">
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="32"/>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
@@ -1989,12 +1965,20 @@
       <c r="BJ12" s="2"/>
       <c r="BK12" s="2"/>
       <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="7"/>
+      <c r="BO12" s="7"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
     </row>
-    <row r="13" spans="1:90" ht="16.5" customHeight="1">
+    <row r="13" spans="1:98" ht="16.5" customHeight="1">
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="20"/>
+      <c r="B13" s="32"/>
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
@@ -2061,13 +2045,20 @@
       <c r="BJ13" s="2"/>
       <c r="BK13" s="2"/>
       <c r="BL13" s="2"/>
-      <c r="BZ13" s="30"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="7"/>
+      <c r="BO13" s="7"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
     </row>
-    <row r="14" spans="1:90" ht="16.5" customHeight="1">
+    <row r="14" spans="1:98" ht="16.5" customHeight="1">
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="20"/>
+      <c r="B14" s="32"/>
       <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
@@ -2134,12 +2125,20 @@
       <c r="BJ14" s="2"/>
       <c r="BK14" s="2"/>
       <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="7"/>
+      <c r="BO14" s="7"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
     </row>
-    <row r="15" spans="1:90" ht="16.5" customHeight="1">
+    <row r="15" spans="1:98" ht="16.5" customHeight="1">
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="32"/>
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
@@ -2206,12 +2205,20 @@
       <c r="BJ15" s="2"/>
       <c r="BK15" s="2"/>
       <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="7"/>
+      <c r="BO15" s="7"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
     </row>
-    <row r="16" spans="1:90" ht="16.5" customHeight="1">
+    <row r="16" spans="1:98" ht="16.5" customHeight="1">
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="21"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2278,12 +2285,20 @@
       <c r="BJ16" s="2"/>
       <c r="BK16" s="2"/>
       <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="7"/>
+      <c r="BO16" s="7"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
     </row>
-    <row r="17" spans="1:64" ht="16.5" customHeight="1">
+    <row r="17" spans="1:72" ht="16.5" customHeight="1">
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="31" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2352,12 +2367,20 @@
       <c r="BJ17" s="2"/>
       <c r="BK17" s="2"/>
       <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="7"/>
+      <c r="BO17" s="7"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
     </row>
-    <row r="18" spans="1:64" ht="16.5" customHeight="1">
+    <row r="18" spans="1:72" ht="16.5" customHeight="1">
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="20"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
@@ -2424,12 +2447,20 @@
       <c r="BJ18" s="2"/>
       <c r="BK18" s="2"/>
       <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="7"/>
+      <c r="BO18" s="7"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
     </row>
-    <row r="19" spans="1:64" ht="16.5" customHeight="1">
+    <row r="19" spans="1:72" ht="16.5" customHeight="1">
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="21"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
@@ -2496,12 +2527,20 @@
       <c r="BJ19" s="2"/>
       <c r="BK19" s="2"/>
       <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="7"/>
+      <c r="BO19" s="7"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
     </row>
-    <row r="20" spans="1:64" ht="16.5" customHeight="1">
+    <row r="20" spans="1:72" ht="16.5" customHeight="1">
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="31" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2570,12 +2609,20 @@
       <c r="BJ20" s="2"/>
       <c r="BK20" s="2"/>
       <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="7"/>
+      <c r="BO20" s="7"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
     </row>
-    <row r="21" spans="1:64" ht="16.5" customHeight="1">
+    <row r="21" spans="1:72" ht="16.5" customHeight="1">
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="20"/>
+      <c r="B21" s="32"/>
       <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
@@ -2642,12 +2689,20 @@
       <c r="BJ21" s="2"/>
       <c r="BK21" s="2"/>
       <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="7"/>
+      <c r="BO21" s="7"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
     </row>
-    <row r="22" spans="1:64" ht="16.5" customHeight="1">
+    <row r="22" spans="1:72" ht="16.5" customHeight="1">
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="21"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
@@ -2714,12 +2769,20 @@
       <c r="BJ22" s="2"/>
       <c r="BK22" s="2"/>
       <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="7"/>
+      <c r="BO22" s="7"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
     </row>
-    <row r="23" spans="1:64">
+    <row r="23" spans="1:72">
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="31" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2788,12 +2851,20 @@
       <c r="BJ23" s="2"/>
       <c r="BK23" s="2"/>
       <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="7"/>
+      <c r="BO23" s="7"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
     </row>
-    <row r="24" spans="1:64">
+    <row r="24" spans="1:72">
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="20"/>
+      <c r="B24" s="32"/>
       <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2860,12 +2931,20 @@
       <c r="BJ24" s="2"/>
       <c r="BK24" s="2"/>
       <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="7"/>
+      <c r="BO24" s="7"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
     </row>
-    <row r="25" spans="1:64">
+    <row r="25" spans="1:72">
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="20"/>
+      <c r="B25" s="32"/>
       <c r="C25" s="6" t="s">
         <v>19</v>
       </c>
@@ -2932,12 +3011,20 @@
       <c r="BJ25" s="2"/>
       <c r="BK25" s="2"/>
       <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="7"/>
+      <c r="BO25" s="7"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
     </row>
-    <row r="26" spans="1:64">
+    <row r="26" spans="1:72">
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="20"/>
+      <c r="B26" s="32"/>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
@@ -3004,12 +3091,20 @@
       <c r="BJ26" s="2"/>
       <c r="BK26" s="2"/>
       <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="7"/>
+      <c r="BO26" s="7"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
     </row>
-    <row r="27" spans="1:64">
+    <row r="27" spans="1:72">
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="20"/>
+      <c r="B27" s="32"/>
       <c r="C27" s="12" t="s">
         <v>24</v>
       </c>
@@ -3076,12 +3171,20 @@
       <c r="BJ27" s="2"/>
       <c r="BK27" s="2"/>
       <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="7"/>
+      <c r="BO27" s="7"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
     </row>
-    <row r="28" spans="1:64">
+    <row r="28" spans="1:72">
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="20"/>
+      <c r="B28" s="32"/>
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
@@ -3148,12 +3251,20 @@
       <c r="BJ28" s="2"/>
       <c r="BK28" s="2"/>
       <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="7"/>
+      <c r="BO28" s="7"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
     </row>
-    <row r="29" spans="1:64">
+    <row r="29" spans="1:72">
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="21"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
@@ -3220,12 +3331,20 @@
       <c r="BJ29" s="2"/>
       <c r="BK29" s="2"/>
       <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="7"/>
+      <c r="BO29" s="7"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
     </row>
-    <row r="30" spans="1:64">
+    <row r="30" spans="1:72">
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="31" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -3294,12 +3413,20 @@
       <c r="BJ30" s="2"/>
       <c r="BK30" s="2"/>
       <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="7"/>
+      <c r="BO30" s="7"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
     </row>
-    <row r="31" spans="1:64" ht="17" customHeight="1">
+    <row r="31" spans="1:72" ht="17" customHeight="1">
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="20"/>
+      <c r="B31" s="32"/>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
@@ -3366,12 +3493,20 @@
       <c r="BJ31" s="2"/>
       <c r="BK31" s="2"/>
       <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="7"/>
+      <c r="BO31" s="7"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
     </row>
-    <row r="32" spans="1:64" ht="17" customHeight="1">
+    <row r="32" spans="1:72" ht="17" customHeight="1">
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="20"/>
+      <c r="B32" s="32"/>
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
@@ -3438,8 +3573,16 @@
       <c r="BJ32" s="2"/>
       <c r="BK32" s="2"/>
       <c r="BL32" s="2"/>
+      <c r="BM32" s="2"/>
+      <c r="BN32" s="7"/>
+      <c r="BO32" s="7"/>
+      <c r="BP32" s="2"/>
+      <c r="BQ32" s="2"/>
+      <c r="BR32" s="2"/>
+      <c r="BS32" s="2"/>
+      <c r="BT32" s="2"/>
     </row>
-    <row r="33" spans="1:64">
+    <row r="33" spans="1:72">
       <c r="A33" s="4">
         <v>28</v>
       </c>
@@ -3512,12 +3655,20 @@
       <c r="BJ33" s="2"/>
       <c r="BK33" s="2"/>
       <c r="BL33" s="2"/>
+      <c r="BM33" s="2"/>
+      <c r="BN33" s="7"/>
+      <c r="BO33" s="7"/>
+      <c r="BP33" s="2"/>
+      <c r="BQ33" s="2"/>
+      <c r="BR33" s="2"/>
+      <c r="BS33" s="2"/>
+      <c r="BT33" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A3:BT3"/>
+    <mergeCell ref="AW4:BT4"/>
     <mergeCell ref="R4:AV4"/>
-    <mergeCell ref="A3:BL3"/>
-    <mergeCell ref="AW4:BL4"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B23:B29"/>
     <mergeCell ref="B6:B16"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35FC91CE-DA7E-5645-A341-CF570426AE53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85209594-8C74-0642-B9CB-A0A4DA90223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,7 +435,7 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -511,6 +511,24 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +538,6 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -552,21 +561,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -914,14 +908,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:CT33"/>
+  <dimension ref="A3:CT33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" zoomScaleNormal="400" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="BU14" sqref="BU14"/>
+      <selection pane="bottomRight" activeCell="AP22" sqref="AP22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -934,219 +928,143 @@
     <col min="46" max="72" width="3.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:98">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="39"/>
-      <c r="V2" s="39"/>
-      <c r="W2" s="39"/>
-      <c r="X2" s="39"/>
-      <c r="Y2" s="39"/>
-      <c r="Z2" s="39"/>
-      <c r="AA2" s="39"/>
-      <c r="AB2" s="39"/>
-      <c r="AC2" s="39"/>
-      <c r="AD2" s="39"/>
-      <c r="AE2" s="39"/>
-      <c r="AF2" s="39"/>
-      <c r="AG2" s="39"/>
-      <c r="AH2" s="39"/>
-      <c r="AI2" s="39"/>
-      <c r="AJ2" s="39"/>
-      <c r="AK2" s="39"/>
-      <c r="AL2" s="39"/>
-      <c r="AM2" s="39"/>
-      <c r="AN2" s="39"/>
-      <c r="AO2" s="39"/>
-      <c r="AP2" s="39"/>
-      <c r="AQ2" s="39"/>
-      <c r="AR2" s="39"/>
-      <c r="AS2" s="39"/>
-      <c r="AT2" s="39"/>
-      <c r="AU2" s="39"/>
-      <c r="AV2" s="39"/>
-      <c r="AW2" s="39"/>
-      <c r="AX2" s="39"/>
-      <c r="AY2" s="39"/>
-      <c r="AZ2" s="39"/>
-      <c r="BA2" s="39"/>
-      <c r="BB2" s="39"/>
-      <c r="BC2" s="39"/>
-      <c r="BD2" s="39"/>
-      <c r="BE2" s="39"/>
-      <c r="BF2" s="39"/>
-      <c r="BG2" s="39"/>
-      <c r="BH2" s="39"/>
-      <c r="BI2" s="39"/>
-      <c r="BJ2" s="39"/>
-      <c r="BK2" s="39"/>
-      <c r="BL2" s="39"/>
-      <c r="BM2" s="39"/>
-      <c r="BN2" s="39"/>
-      <c r="BO2" s="39"/>
-      <c r="BP2" s="39"/>
-      <c r="BQ2" s="39"/>
-      <c r="BR2" s="39"/>
-      <c r="BS2" s="39"/>
-      <c r="BT2" s="39"/>
-      <c r="BU2" s="39"/>
-    </row>
     <row r="3" spans="1:98">
-      <c r="A3" s="40" t="s">
+      <c r="A3" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="41"/>
-      <c r="AW3" s="41"/>
-      <c r="AX3" s="41"/>
-      <c r="AY3" s="41"/>
-      <c r="AZ3" s="41"/>
-      <c r="BA3" s="41"/>
-      <c r="BB3" s="41"/>
-      <c r="BC3" s="41"/>
-      <c r="BD3" s="41"/>
-      <c r="BE3" s="41"/>
-      <c r="BF3" s="41"/>
-      <c r="BG3" s="41"/>
-      <c r="BH3" s="41"/>
-      <c r="BI3" s="41"/>
-      <c r="BJ3" s="41"/>
-      <c r="BK3" s="41"/>
-      <c r="BL3" s="41"/>
-      <c r="BM3" s="41"/>
-      <c r="BN3" s="41"/>
-      <c r="BO3" s="41"/>
-      <c r="BP3" s="41"/>
-      <c r="BQ3" s="41"/>
-      <c r="BR3" s="41"/>
-      <c r="BS3" s="41"/>
-      <c r="BT3" s="42"/>
-      <c r="BU3" s="39"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="P3" s="26"/>
+      <c r="Q3" s="26"/>
+      <c r="R3" s="26"/>
+      <c r="S3" s="26"/>
+      <c r="T3" s="26"/>
+      <c r="U3" s="26"/>
+      <c r="V3" s="26"/>
+      <c r="W3" s="26"/>
+      <c r="X3" s="26"/>
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26"/>
+      <c r="AA3" s="26"/>
+      <c r="AB3" s="26"/>
+      <c r="AC3" s="26"/>
+      <c r="AD3" s="26"/>
+      <c r="AE3" s="26"/>
+      <c r="AF3" s="26"/>
+      <c r="AG3" s="26"/>
+      <c r="AH3" s="26"/>
+      <c r="AI3" s="26"/>
+      <c r="AJ3" s="26"/>
+      <c r="AK3" s="26"/>
+      <c r="AL3" s="26"/>
+      <c r="AM3" s="26"/>
+      <c r="AN3" s="26"/>
+      <c r="AO3" s="26"/>
+      <c r="AP3" s="26"/>
+      <c r="AQ3" s="26"/>
+      <c r="AR3" s="26"/>
+      <c r="AS3" s="26"/>
+      <c r="AT3" s="26"/>
+      <c r="AU3" s="26"/>
+      <c r="AV3" s="26"/>
+      <c r="AW3" s="26"/>
+      <c r="AX3" s="26"/>
+      <c r="AY3" s="26"/>
+      <c r="AZ3" s="26"/>
+      <c r="BA3" s="26"/>
+      <c r="BB3" s="26"/>
+      <c r="BC3" s="26"/>
+      <c r="BD3" s="26"/>
+      <c r="BE3" s="26"/>
+      <c r="BF3" s="26"/>
+      <c r="BG3" s="26"/>
+      <c r="BH3" s="26"/>
+      <c r="BI3" s="26"/>
+      <c r="BJ3" s="26"/>
+      <c r="BK3" s="26"/>
+      <c r="BL3" s="26"/>
+      <c r="BM3" s="26"/>
+      <c r="BN3" s="26"/>
+      <c r="BO3" s="26"/>
+      <c r="BP3" s="26"/>
+      <c r="BQ3" s="26"/>
+      <c r="BR3" s="26"/>
+      <c r="BS3" s="26"/>
+      <c r="BT3" s="27"/>
     </row>
     <row r="4" spans="1:98">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="37"/>
-      <c r="Q4" s="38"/>
-      <c r="R4" s="25" t="s">
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="S4" s="26"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="26"/>
-      <c r="X4" s="26"/>
-      <c r="Y4" s="26"/>
-      <c r="Z4" s="26"/>
-      <c r="AA4" s="26"/>
-      <c r="AB4" s="26"/>
-      <c r="AC4" s="26"/>
-      <c r="AD4" s="26"/>
-      <c r="AE4" s="26"/>
-      <c r="AF4" s="26"/>
-      <c r="AG4" s="26"/>
-      <c r="AH4" s="26"/>
-      <c r="AI4" s="26"/>
-      <c r="AJ4" s="26"/>
-      <c r="AK4" s="26"/>
-      <c r="AL4" s="26"/>
-      <c r="AM4" s="26"/>
-      <c r="AN4" s="26"/>
-      <c r="AO4" s="26"/>
-      <c r="AP4" s="26"/>
-      <c r="AQ4" s="26"/>
-      <c r="AR4" s="26"/>
-      <c r="AS4" s="26"/>
-      <c r="AT4" s="26"/>
-      <c r="AU4" s="26"/>
-      <c r="AV4" s="27"/>
+      <c r="S4" s="32"/>
+      <c r="T4" s="32"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="32"/>
+      <c r="X4" s="32"/>
+      <c r="Y4" s="32"/>
+      <c r="Z4" s="32"/>
+      <c r="AA4" s="32"/>
+      <c r="AB4" s="32"/>
+      <c r="AC4" s="32"/>
+      <c r="AD4" s="32"/>
+      <c r="AE4" s="32"/>
+      <c r="AF4" s="32"/>
+      <c r="AG4" s="32"/>
+      <c r="AH4" s="32"/>
+      <c r="AI4" s="32"/>
+      <c r="AJ4" s="32"/>
+      <c r="AK4" s="32"/>
+      <c r="AL4" s="32"/>
+      <c r="AM4" s="32"/>
+      <c r="AN4" s="32"/>
+      <c r="AO4" s="32"/>
+      <c r="AP4" s="32"/>
+      <c r="AQ4" s="32"/>
+      <c r="AR4" s="32"/>
+      <c r="AS4" s="32"/>
+      <c r="AT4" s="32"/>
+      <c r="AU4" s="32"/>
+      <c r="AV4" s="33"/>
       <c r="AW4" s="28" t="s">
         <v>45</v>
       </c>
@@ -1173,7 +1091,7 @@
       <c r="BR4" s="29"/>
       <c r="BS4" s="29"/>
       <c r="BT4" s="30"/>
-      <c r="BU4" s="43"/>
+      <c r="BU4" s="19"/>
       <c r="BV4" s="19"/>
       <c r="BW4" s="19"/>
       <c r="BX4" s="19"/>
@@ -1201,10 +1119,10 @@
       <c r="CT4" s="19"/>
     </row>
     <row r="5" spans="1:98">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
+      <c r="A5" s="37"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
       <c r="E5" s="3">
         <v>19</v>
       </c>
@@ -1409,13 +1327,12 @@
       <c r="BT5" s="22">
         <v>24</v>
       </c>
-      <c r="BU5" s="39"/>
     </row>
     <row r="6" spans="1:98" ht="16.5" customHeight="1">
       <c r="A6" s="4">
         <v>1</v>
       </c>
-      <c r="B6" s="31" t="s">
+      <c r="B6" s="34" t="s">
         <v>14</v>
       </c>
       <c r="C6" s="8" t="s">
@@ -1497,7 +1414,7 @@
       <c r="A7" s="4">
         <v>2</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="35"/>
       <c r="C7" s="8" t="s">
         <v>12</v>
       </c>
@@ -1578,7 +1495,7 @@
       <c r="A8" s="4">
         <v>3</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="35"/>
       <c r="C8" s="8" t="s">
         <v>10</v>
       </c>
@@ -1658,7 +1575,7 @@
       <c r="A9" s="4">
         <v>4</v>
       </c>
-      <c r="B9" s="32"/>
+      <c r="B9" s="35"/>
       <c r="C9" s="9" t="s">
         <v>30</v>
       </c>
@@ -1738,7 +1655,7 @@
       <c r="A10" s="4">
         <v>5</v>
       </c>
-      <c r="B10" s="32"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
@@ -1818,7 +1735,7 @@
       <c r="A11" s="4">
         <v>6</v>
       </c>
-      <c r="B11" s="32"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="8" t="s">
         <v>29</v>
       </c>
@@ -1898,7 +1815,7 @@
       <c r="A12" s="4">
         <v>7</v>
       </c>
-      <c r="B12" s="32"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="8" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +1895,7 @@
       <c r="A13" s="4">
         <v>8</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="8" t="s">
         <v>33</v>
       </c>
@@ -2058,7 +1975,7 @@
       <c r="A14" s="4">
         <v>9</v>
       </c>
-      <c r="B14" s="32"/>
+      <c r="B14" s="35"/>
       <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
@@ -2138,7 +2055,7 @@
       <c r="A15" s="4">
         <v>10</v>
       </c>
-      <c r="B15" s="32"/>
+      <c r="B15" s="35"/>
       <c r="C15" s="8" t="s">
         <v>26</v>
       </c>
@@ -2218,7 +2135,7 @@
       <c r="A16" s="4">
         <v>11</v>
       </c>
-      <c r="B16" s="33"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="8" t="s">
         <v>27</v>
       </c>
@@ -2298,7 +2215,7 @@
       <c r="A17" s="4">
         <v>12</v>
       </c>
-      <c r="B17" s="31" t="s">
+      <c r="B17" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C17" s="10" t="s">
@@ -2380,7 +2297,7 @@
       <c r="A18" s="4">
         <v>13</v>
       </c>
-      <c r="B18" s="32"/>
+      <c r="B18" s="35"/>
       <c r="C18" s="6" t="s">
         <v>41</v>
       </c>
@@ -2460,7 +2377,7 @@
       <c r="A19" s="4">
         <v>14</v>
       </c>
-      <c r="B19" s="33"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="10" t="s">
         <v>20</v>
       </c>
@@ -2540,7 +2457,7 @@
       <c r="A20" s="4">
         <v>15</v>
       </c>
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="34" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="10" t="s">
@@ -2622,7 +2539,7 @@
       <c r="A21" s="4">
         <v>16</v>
       </c>
-      <c r="B21" s="32"/>
+      <c r="B21" s="35"/>
       <c r="C21" s="11" t="s">
         <v>43</v>
       </c>
@@ -2702,7 +2619,7 @@
       <c r="A22" s="4">
         <v>17</v>
       </c>
-      <c r="B22" s="33"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="10" t="s">
         <v>42</v>
       </c>
@@ -2752,7 +2669,7 @@
       <c r="AS22" s="7"/>
       <c r="AT22" s="7"/>
       <c r="AU22" s="2"/>
-      <c r="AV22" s="2"/>
+      <c r="AV22" s="5"/>
       <c r="AW22" s="2"/>
       <c r="AX22" s="2"/>
       <c r="AY22" s="2"/>
@@ -2782,7 +2699,7 @@
       <c r="A23" s="4">
         <v>18</v>
       </c>
-      <c r="B23" s="31" t="s">
+      <c r="B23" s="34" t="s">
         <v>16</v>
       </c>
       <c r="C23" s="6" t="s">
@@ -2835,7 +2752,7 @@
       <c r="AT23" s="7"/>
       <c r="AU23" s="2"/>
       <c r="AV23" s="2"/>
-      <c r="AW23" s="2"/>
+      <c r="AW23" s="5"/>
       <c r="AX23" s="2"/>
       <c r="AY23" s="2"/>
       <c r="AZ23" s="7"/>
@@ -2864,7 +2781,7 @@
       <c r="A24" s="4">
         <v>19</v>
       </c>
-      <c r="B24" s="32"/>
+      <c r="B24" s="35"/>
       <c r="C24" s="6" t="s">
         <v>18</v>
       </c>
@@ -2944,7 +2861,7 @@
       <c r="A25" s="4">
         <v>20</v>
       </c>
-      <c r="B25" s="32"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="6" t="s">
         <v>19</v>
       </c>
@@ -3024,7 +2941,7 @@
       <c r="A26" s="4">
         <v>21</v>
       </c>
-      <c r="B26" s="32"/>
+      <c r="B26" s="35"/>
       <c r="C26" s="6" t="s">
         <v>9</v>
       </c>
@@ -3074,8 +2991,8 @@
       <c r="AS26" s="7"/>
       <c r="AT26" s="7"/>
       <c r="AU26" s="2"/>
-      <c r="AV26" s="2"/>
-      <c r="AW26" s="2"/>
+      <c r="AV26" s="5"/>
+      <c r="AW26" s="5"/>
       <c r="AX26" s="2"/>
       <c r="AY26" s="2"/>
       <c r="AZ26" s="7"/>
@@ -3104,7 +3021,7 @@
       <c r="A27" s="4">
         <v>22</v>
       </c>
-      <c r="B27" s="32"/>
+      <c r="B27" s="35"/>
       <c r="C27" s="12" t="s">
         <v>24</v>
       </c>
@@ -3154,7 +3071,7 @@
       <c r="AS27" s="7"/>
       <c r="AT27" s="7"/>
       <c r="AU27" s="2"/>
-      <c r="AV27" s="2"/>
+      <c r="AV27" s="5"/>
       <c r="AW27" s="2"/>
       <c r="AX27" s="2"/>
       <c r="AY27" s="2"/>
@@ -3184,7 +3101,7 @@
       <c r="A28" s="4">
         <v>23</v>
       </c>
-      <c r="B28" s="32"/>
+      <c r="B28" s="35"/>
       <c r="C28" s="6" t="s">
         <v>44</v>
       </c>
@@ -3233,7 +3150,7 @@
       <c r="AR28" s="2"/>
       <c r="AS28" s="7"/>
       <c r="AT28" s="7"/>
-      <c r="AU28" s="2"/>
+      <c r="AU28" s="5"/>
       <c r="AV28" s="2"/>
       <c r="AW28" s="2"/>
       <c r="AX28" s="2"/>
@@ -3264,7 +3181,7 @@
       <c r="A29" s="4">
         <v>24</v>
       </c>
-      <c r="B29" s="33"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="6" t="s">
         <v>37</v>
       </c>
@@ -3313,7 +3230,7 @@
       <c r="AR29" s="2"/>
       <c r="AS29" s="7"/>
       <c r="AT29" s="7"/>
-      <c r="AU29" s="2"/>
+      <c r="AU29" s="5"/>
       <c r="AV29" s="2"/>
       <c r="AW29" s="2"/>
       <c r="AX29" s="2"/>
@@ -3344,7 +3261,7 @@
       <c r="A30" s="4">
         <v>25</v>
       </c>
-      <c r="B30" s="31" t="s">
+      <c r="B30" s="34" t="s">
         <v>17</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -3426,7 +3343,7 @@
       <c r="A31" s="4">
         <v>26</v>
       </c>
-      <c r="B31" s="32"/>
+      <c r="B31" s="35"/>
       <c r="C31" s="6" t="s">
         <v>8</v>
       </c>
@@ -3506,7 +3423,7 @@
       <c r="A32" s="4">
         <v>27</v>
       </c>
-      <c r="B32" s="32"/>
+      <c r="B32" s="35"/>
       <c r="C32" s="6" t="s">
         <v>38</v>
       </c>
@@ -3556,8 +3473,8 @@
       <c r="AS32" s="7"/>
       <c r="AT32" s="7"/>
       <c r="AU32" s="2"/>
-      <c r="AV32" s="2"/>
-      <c r="AW32" s="2"/>
+      <c r="AV32" s="5"/>
+      <c r="AW32" s="5"/>
       <c r="AX32" s="2"/>
       <c r="AY32" s="2"/>
       <c r="AZ32" s="7"/>

--- a/Development Schedule.xlsx
+++ b/Development Schedule.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sanghyunkim/Desktop/KaplaProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85209594-8C74-0642-B9CB-A0A4DA90223B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB44AFAC-23CB-3D40-A8DA-9D9C292DEF71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -911,11 +911,11 @@
   <dimension ref="A3:CT33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="112" zoomScaleNormal="400" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AA4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="D3" sqref="D3"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP22" sqref="AP22"/>
+      <selection pane="bottomRight" activeCell="BU22" sqref="BU22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
@@ -2761,7 +2761,7 @@
       <c r="BC23" s="2"/>
       <c r="BD23" s="2"/>
       <c r="BE23" s="2"/>
-      <c r="BF23" s="2"/>
+      <c r="BF23" s="5"/>
       <c r="BG23" s="7"/>
       <c r="BH23" s="7"/>
       <c r="BI23" s="2"/>
@@ -2994,12 +2994,12 @@
       <c r="AV26" s="5"/>
       <c r="AW26" s="5"/>
       <c r="AX26" s="2"/>
-      <c r="AY26" s="2"/>
+      <c r="AY26" s="5"/>
       <c r="AZ26" s="7"/>
       <c r="BA26" s="7"/>
       <c r="BB26" s="2"/>
       <c r="BC26" s="2"/>
-      <c r="BD26" s="2"/>
+      <c r="BD26" s="5"/>
       <c r="BE26" s="2"/>
       <c r="BF26" s="2"/>
       <c r="BG26" s="7"/>
@@ -3172,9 +3172,9 @@
       <c r="BN28" s="7"/>
       <c r="BO28" s="7"/>
       <c r="BP28" s="2"/>
-      <c r="BQ28" s="2"/>
-      <c r="BR28" s="2"/>
-      <c r="BS28" s="2"/>
+      <c r="BQ28" s="5"/>
+      <c r="BR28" s="5"/>
+      <c r="BS28" s="5"/>
       <c r="BT28" s="2"/>
     </row>
     <row r="29" spans="1:72">
@@ -3321,7 +3321,7 @@
       <c r="BA30" s="7"/>
       <c r="BB30" s="2"/>
       <c r="BC30" s="2"/>
-      <c r="BD30" s="2"/>
+      <c r="BD30" s="5"/>
       <c r="BE30" s="2"/>
       <c r="BF30" s="2"/>
       <c r="BG30" s="7"/>
@@ -3476,7 +3476,7 @@
       <c r="AV32" s="5"/>
       <c r="AW32" s="5"/>
       <c r="AX32" s="2"/>
-      <c r="AY32" s="2"/>
+      <c r="AY32" s="5"/>
       <c r="AZ32" s="7"/>
       <c r="BA32" s="7"/>
       <c r="BB32" s="2"/>
@@ -3487,17 +3487,16 @@
       <c r="BG32" s="7"/>
       <c r="BH32" s="7"/>
       <c r="BI32" s="2"/>
-      <c r="BJ32" s="2"/>
-      <c r="BK32" s="2"/>
-      <c r="BL32" s="2"/>
-      <c r="BM32" s="2"/>
+      <c r="BJ32" s="5"/>
+      <c r="BL32" s="5"/>
+      <c r="BM32" s="5"/>
       <c r="BN32" s="7"/>
       <c r="BO32" s="7"/>
-      <c r="BP32" s="2"/>
+      <c r="BP32" s="5"/>
       <c r="BQ32" s="2"/>
       <c r="BR32" s="2"/>
-      <c r="BS32" s="2"/>
-      <c r="BT32" s="2"/>
+      <c r="BS32" s="5"/>
+      <c r="BT32" s="5"/>
     </row>
     <row r="33" spans="1:72">
       <c r="A33" s="4">
